--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/50/Output_19_30.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/50/Output_19_30.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1290750.416124427</v>
+        <v>1236749.316178957</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>11259687.30723207</v>
+        <v>11259687.30723208</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6075794.257687836</v>
+        <v>6075794.257687838</v>
       </c>
     </row>
     <row r="11">
@@ -1375,22 +1375,22 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>4.435036317088313</v>
+      </c>
+      <c r="H11" t="n">
         <v>291.3144099306533</v>
       </c>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0</v>
-      </c>
-      <c r="G11" t="n">
-        <v>173.1049840726767</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
       <c r="I11" t="n">
-        <v>83.48474819424257</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1426,16 +1426,16 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>252.154695949831</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
+        <v>0</v>
+      </c>
+      <c r="X11" t="n">
         <v>291.3144099306533</v>
-      </c>
-      <c r="X11" t="n">
-        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1451,25 +1451,25 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>160.0866360314548</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>145.5577298436975</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>23.11407482934885</v>
+        <v>126.2254074071893</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>29.3855869783604</v>
       </c>
       <c r="I12" t="n">
-        <v>25.83842112961049</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1499,22 +1499,22 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>128.6883997580476</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
         <v>181.8976950912513</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>216.2298571375572</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>226.1116663261494</v>
       </c>
       <c r="W12" t="n">
-        <v>238.9027100790231</v>
+        <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>195.9378182409833</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
         <v>190.5961130869169</v>
@@ -1530,7 +1530,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.9198098429365</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1548,7 +1548,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>112.1081168638416</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1581,13 +1581,13 @@
         <v>193.8091813788789</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>226.4920059644283</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>284.2627393580713</v>
       </c>
       <c r="V13" t="n">
-        <v>51.39073066104318</v>
+        <v>40.47871926496743</v>
       </c>
       <c r="W13" t="n">
         <v>283.2948374677749</v>
@@ -1596,7 +1596,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>219.8148072196457</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1609,67 +1609,67 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
         <v>291.3144099306533</v>
       </c>
-      <c r="D14" t="n">
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>0</v>
+      </c>
+      <c r="R14" t="n">
+        <v>0</v>
+      </c>
+      <c r="S14" t="n">
+        <v>0</v>
+      </c>
+      <c r="T14" t="n">
+        <v>212.1682008602224</v>
+      </c>
+      <c r="U14" t="n">
+        <v>252.154695949831</v>
+      </c>
+      <c r="V14" t="n">
         <v>291.3144099306533</v>
       </c>
-      <c r="E14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" t="n">
-        <v>291.3144099306533</v>
-      </c>
-      <c r="G14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>83.4847481942426</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
-        <v>0</v>
-      </c>
-      <c r="P14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>0</v>
-      </c>
-      <c r="R14" t="n">
-        <v>0</v>
-      </c>
-      <c r="S14" t="n">
-        <v>133.5758024357742</v>
-      </c>
-      <c r="T14" t="n">
-        <v>0</v>
-      </c>
-      <c r="U14" t="n">
-        <v>39.5291816369025</v>
-      </c>
-      <c r="V14" t="n">
-        <v>0</v>
-      </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>83.58124538751927</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -1694,16 +1694,16 @@
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>145.5577298436975</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>133.3468600696244</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>62.75479718824942</v>
       </c>
       <c r="H15" t="n">
-        <v>87.19633734978059</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1736,25 +1736,25 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>128.6883997580476</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>181.8976950912513</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>214.9432298674547</v>
+        <v>216.2298571375572</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>226.1116663261494</v>
       </c>
       <c r="W15" t="n">
         <v>238.9027100790231</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>195.9378182409833</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>190.5961130869169</v>
       </c>
     </row>
     <row r="16">
@@ -1773,10 +1773,10 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>150.4889240962943</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>150.9558484244806</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1785,7 +1785,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>19.88085071281756</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,19 +1812,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>102.1954786247584</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>193.8091813788789</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>226.4920059644283</v>
       </c>
       <c r="U16" t="n">
         <v>284.2627393580713</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>258.1279513971616</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -1833,7 +1833,7 @@
         <v>228.939939463578</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>132.7103258756401</v>
       </c>
     </row>
     <row r="17">
@@ -1852,10 +1852,10 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>291.3144099306533</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>291.3144099306533</v>
       </c>
       <c r="G17" t="n">
         <v>291.3144099306533</v>
@@ -1897,22 +1897,22 @@
         <v>133.5758024357742</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>123.0139298311451</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>291.3144099306533</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>123.0139298311451</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>291.3144099306533</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1922,10 +1922,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>157.8252483534483</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>160.0866360314548</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
@@ -1934,7 +1934,7 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>133.3468600696244</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -1943,7 +1943,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>25.83842112961049</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1982,13 +1982,13 @@
         <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>115.501051496777</v>
+        <v>226.1116663261494</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>238.9027100790231</v>
       </c>
       <c r="X18" t="n">
-        <v>195.9378182409833</v>
+        <v>5.151096518256198</v>
       </c>
       <c r="Y18" t="n">
         <v>190.5961130869169</v>
@@ -2007,10 +2007,10 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>130.0935374740064</v>
+        <v>151.5411742405149</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2019,7 +2019,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>124.0680991408343</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>102.1954786247584</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>193.8091813788789</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>226.4920059644283</v>
@@ -2080,20 +2080,20 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>291.3144099306533</v>
       </c>
       <c r="C20" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>173.1049840726766</v>
+      </c>
+      <c r="F20" t="n">
         <v>291.3144099306533</v>
       </c>
-      <c r="D20" t="n">
-        <v>0</v>
-      </c>
-      <c r="E20" t="n">
-        <v>0</v>
-      </c>
-      <c r="F20" t="n">
-        <v>0</v>
-      </c>
       <c r="G20" t="n">
         <v>0</v>
       </c>
@@ -2101,7 +2101,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>83.48474819424257</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>133.5758024357742</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>162.1736438119674</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>252.154695949831</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -2159,7 +2159,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>157.8252483534483</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
         <v>160.0866360314548</v>
@@ -2174,7 +2174,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>126.2254074071893</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -2213,22 +2213,22 @@
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>181.8976950912513</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>216.2298571375572</v>
       </c>
       <c r="V21" t="n">
         <v>226.1116663261494</v>
       </c>
       <c r="W21" t="n">
-        <v>82.44849060840276</v>
+        <v>141.5708712358174</v>
       </c>
       <c r="X21" t="n">
         <v>195.9378182409833</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>190.5961130869169</v>
       </c>
     </row>
     <row r="22">
@@ -2253,7 +2253,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.2112589209658</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2286,19 +2286,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>102.1954786247584</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>193.8091813788789</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>226.4920059644283</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>75.71919005999204</v>
       </c>
       <c r="V22" t="n">
-        <v>197.3765416296994</v>
+        <v>258.1279513971616</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -2307,7 +2307,7 @@
         <v>228.939939463578</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>219.8148072196457</v>
       </c>
     </row>
     <row r="23">
@@ -2323,14 +2323,14 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
         <v>366.2783294759988</v>
       </c>
-      <c r="E23" t="n">
-        <v>0</v>
-      </c>
-      <c r="F23" t="n">
-        <v>196.4108988017094</v>
-      </c>
       <c r="G23" t="n">
         <v>0</v>
       </c>
@@ -2368,13 +2368,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>133.5758024357742</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>77.83200528765259</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>252.154695949831</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -2383,10 +2383,10 @@
         <v>358.909580840975</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>366.2783294759988</v>
       </c>
       <c r="Y23" t="n">
-        <v>366.2783294759988</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2396,16 +2396,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>112.8010921443213</v>
+        <v>157.8252483534483</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>160.0866360314548</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>137.45025063969</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>145.5577298436975</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
@@ -2417,7 +2417,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>25.83842112961049</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2447,7 +2447,7 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>128.6883997580476</v>
+        <v>74.40387715557388</v>
       </c>
       <c r="T24" t="n">
         <v>181.8976950912513</v>
@@ -2456,16 +2456,16 @@
         <v>216.2298571375572</v>
       </c>
       <c r="V24" t="n">
-        <v>226.1116663261494</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>238.9027100790231</v>
+        <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>195.9378182409833</v>
       </c>
       <c r="Y24" t="n">
-        <v>190.5961130869169</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>181.719814997536</v>
       </c>
       <c r="C25" t="n">
         <v>167.9198098429365</v>
@@ -2490,13 +2490,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.2112589209658</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.7164842601944</v>
       </c>
       <c r="I25" t="n">
-        <v>51.6225274768389</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>102.1954786247584</v>
+        <v>15.72775372574245</v>
       </c>
       <c r="S25" t="n">
         <v>193.8091813788789</v>
@@ -2532,10 +2532,10 @@
         <v>226.4920059644283</v>
       </c>
       <c r="U25" t="n">
-        <v>284.2627393580713</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>258.1279513971616</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -2557,16 +2557,16 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>366.2783294759988</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>98.3663314676548</v>
+        <v>105.557401972443</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>366.2783294759988</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -2575,7 +2575,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>83.48474819424257</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2608,22 +2608,22 @@
         <v>133.5758024357742</v>
       </c>
       <c r="T26" t="n">
-        <v>212.1682008602224</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>252.154695949831</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>358.909580840975</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>366.2783294759988</v>
       </c>
       <c r="Y26" t="n">
-        <v>366.2783294759988</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2642,16 +2642,16 @@
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>78.93986352005575</v>
       </c>
       <c r="F27" t="n">
-        <v>133.3468600696244</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>87.19633734978058</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2693,13 +2693,13 @@
         <v>216.2298571375572</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>226.1116663261494</v>
       </c>
       <c r="W27" t="n">
-        <v>127.4732242648398</v>
+        <v>238.9027100790231</v>
       </c>
       <c r="X27" t="n">
-        <v>195.9378182409833</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
         <v>190.5961130869169</v>
@@ -2712,25 +2712,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>181.719814997536</v>
       </c>
       <c r="C28" t="n">
-        <v>167.9198098429365</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>151.5411742405149</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.2112589209658</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>127.8735012854499</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2766,7 +2766,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>226.4920059644283</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -2775,13 +2775,13 @@
         <v>258.1279513971616</v>
       </c>
       <c r="W28" t="n">
-        <v>66.42177427743262</v>
+        <v>283.2948374677749</v>
       </c>
       <c r="X28" t="n">
-        <v>228.939939463578</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>219.8148072196457</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2791,28 +2791,28 @@
         </is>
       </c>
       <c r="B29" t="n">
+        <v>0</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" t="n">
         <v>366.2783294759988</v>
       </c>
-      <c r="C29" t="n">
-        <v>0</v>
-      </c>
-      <c r="D29" t="n">
-        <v>0</v>
-      </c>
-      <c r="E29" t="n">
-        <v>0</v>
-      </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>366.2783294759988</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>366.2783294759988</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>83.48474819424257</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2848,19 +2848,19 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>196.4108988017094</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>358.909580840975</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>366.2783294759988</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>105.557401972443</v>
       </c>
     </row>
     <row r="30">
@@ -2873,7 +2873,7 @@
         <v>157.8252483534483</v>
       </c>
       <c r="C30" t="n">
-        <v>160.0866360314548</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
@@ -2882,7 +2882,7 @@
         <v>145.5577298436975</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>133.3468600696244</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
@@ -2927,19 +2927,19 @@
         <v>181.8976950912513</v>
       </c>
       <c r="U30" t="n">
-        <v>216.2298571375572</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>226.1116663261494</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>92.02095000945886</v>
+        <v>174.5683181070955</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>195.9378182409833</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>190.5961130869169</v>
       </c>
     </row>
     <row r="31">
@@ -2958,10 +2958,10 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>150.4889240962943</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>150.9558484244806</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -2997,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>102.1954786247584</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>193.8091813788789</v>
       </c>
       <c r="T31" t="n">
         <v>226.4920059644283</v>
@@ -3012,10 +3012,10 @@
         <v>258.1279513971616</v>
       </c>
       <c r="W31" t="n">
-        <v>248.9299931652614</v>
+        <v>283.2948374677749</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>175.4662254641409</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3028,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>303.1657836928534</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -3082,10 +3082,10 @@
         <v>133.5758024357742</v>
       </c>
       <c r="T32" t="n">
-        <v>212.1682008602224</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>252.154695949831</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -3094,7 +3094,7 @@
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>343.1522787824618</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -3107,7 +3107,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>45.55167366138565</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
@@ -3116,19 +3116,19 @@
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>17.25026018091675</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>126.2254074071893</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>25.83842112961049</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3158,7 +3158,7 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>128.6883997580476</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
         <v>181.8976950912513</v>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>181.719814997536</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -3198,13 +3198,13 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>26.74974120394653</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.7164842601944</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3234,19 +3234,19 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>102.1954786247584</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>193.8091813788789</v>
       </c>
       <c r="T34" t="n">
-        <v>156.3560819837911</v>
+        <v>226.4920059644283</v>
       </c>
       <c r="U34" t="n">
         <v>284.2627393580713</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>258.1279513971616</v>
       </c>
       <c r="W34" t="n">
         <v>283.2948374677749</v>
@@ -3255,7 +3255,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>219.8148072196457</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3265,22 +3265,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>291.3144099306535</v>
+        <v>256.5897322669193</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>291.3144099306533</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>291.3144099306533</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>291.3144099306533</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3316,10 +3316,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>133.5758024357742</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>212.1682008602224</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -3331,10 +3331,10 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>202.1601389015764</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>291.3144099306535</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3356,13 +3356,13 @@
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>127.1255028679771</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>126.2254074071893</v>
       </c>
       <c r="H36" t="n">
-        <v>87.19633734978058</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3395,10 +3395,10 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>128.6883997580476</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>181.8976950912513</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
         <v>216.2298571375572</v>
@@ -3410,7 +3410,7 @@
         <v>238.9027100790231</v>
       </c>
       <c r="X36" t="n">
-        <v>51.50629631707083</v>
+        <v>195.9378182409833</v>
       </c>
       <c r="Y36" t="n">
         <v>0</v>
@@ -3426,7 +3426,7 @@
         <v>181.719814997536</v>
       </c>
       <c r="C37" t="n">
-        <v>167.9198098429365</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3438,7 +3438,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.2112589209658</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3471,28 +3471,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>44.69346508429562</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>193.8091813788789</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>226.4920059644283</v>
       </c>
       <c r="U37" t="n">
-        <v>284.2627393580713</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>258.1279513971616</v>
+        <v>107.3551354927254</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>228.939939463578</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>219.8148072196457</v>
       </c>
     </row>
     <row r="38">
@@ -3508,16 +3508,16 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>291.3144099306533</v>
       </c>
       <c r="E38" t="n">
-        <v>291.3144099306532</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>291.3144099306533</v>
       </c>
       <c r="G38" t="n">
-        <v>291.3144099306532</v>
+        <v>291.3144099306533</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3559,16 +3559,16 @@
         <v>212.1682008602225</v>
       </c>
       <c r="U38" t="n">
-        <v>252.154695949831</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>83.58124538751905</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>44.42153140669682</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -3581,19 +3581,19 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>157.8252483534483</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>137.45025063969</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>45.94265769646937</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>133.3468600696244</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
         <v>126.2254074071893</v>
@@ -3602,7 +3602,7 @@
         <v>87.19633734978059</v>
       </c>
       <c r="I39" t="n">
-        <v>25.8384211296105</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3635,22 +3635,22 @@
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>39.92916551819652</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>216.2298571375572</v>
       </c>
       <c r="V39" t="n">
         <v>226.1116663261494</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>238.9027100790231</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>195.9378182409833</v>
       </c>
       <c r="Y39" t="n">
-        <v>190.5961130869169</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -3660,25 +3660,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>181.719814997536</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>151.5411742405149</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.2112589209658</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.7164842601944</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3711,25 +3711,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>193.8091813788789</v>
       </c>
       <c r="T40" t="n">
-        <v>226.4920059644283</v>
+        <v>90.825999698453</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>219.2114964094939</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>283.2948374677749</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>228.939939463578</v>
       </c>
       <c r="Y40" t="n">
-        <v>219.8148072196457</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3739,10 +3739,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>256.5897322669193</v>
+        <v>291.3144099306532</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>291.3144099306532</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -3751,61 +3751,61 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
+        <v>0</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0</v>
+      </c>
+      <c r="O41" t="n">
+        <v>0</v>
+      </c>
+      <c r="P41" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>0</v>
+      </c>
+      <c r="R41" t="n">
+        <v>0</v>
+      </c>
+      <c r="S41" t="n">
+        <v>0</v>
+      </c>
+      <c r="T41" t="n">
+        <v>4.435036317088313</v>
+      </c>
+      <c r="U41" t="n">
+        <v>252.154695949831</v>
+      </c>
+      <c r="V41" t="n">
         <v>291.3144099306532</v>
       </c>
-      <c r="G41" t="n">
-        <v>0</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
-      <c r="J41" t="n">
-        <v>0</v>
-      </c>
-      <c r="K41" t="n">
-        <v>0</v>
-      </c>
-      <c r="L41" t="n">
-        <v>0</v>
-      </c>
-      <c r="M41" t="n">
-        <v>0</v>
-      </c>
-      <c r="N41" t="n">
-        <v>0</v>
-      </c>
-      <c r="O41" t="n">
-        <v>0</v>
-      </c>
-      <c r="P41" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>0</v>
-      </c>
-      <c r="R41" t="n">
-        <v>0</v>
-      </c>
-      <c r="S41" t="n">
-        <v>0</v>
-      </c>
-      <c r="T41" t="n">
-        <v>0</v>
-      </c>
-      <c r="U41" t="n">
-        <v>0</v>
-      </c>
-      <c r="V41" t="n">
-        <v>0</v>
-      </c>
       <c r="W41" t="n">
-        <v>291.3144099306532</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>291.3144099306532</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -3875,19 +3875,19 @@
         <v>181.8976950912513</v>
       </c>
       <c r="U42" t="n">
-        <v>216.2298571375572</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>2.797145203732097</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
         <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>28.43088925437236</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>190.5961130869169</v>
       </c>
     </row>
     <row r="43">
@@ -3900,13 +3900,13 @@
         <v>181.719814997536</v>
       </c>
       <c r="C43" t="n">
-        <v>167.9198098429365</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>151.5411742405149</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>150.4889240962943</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -3915,7 +3915,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>148.7164842601944</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3948,19 +3948,19 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>193.8091813788789</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>123.127618838335</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>284.2627393580713</v>
       </c>
       <c r="V43" t="n">
-        <v>136.3375732425238</v>
+        <v>258.1279513971616</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>283.2948374677749</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3976,13 +3976,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>256.5897322669193</v>
+        <v>44.42153140669682</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>291.3144099306532</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>291.3144099306532</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -3991,7 +3991,7 @@
         <v>291.3144099306532</v>
       </c>
       <c r="G44" t="n">
-        <v>291.3144099306532</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4030,7 +4030,7 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>212.1682008602225</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -4039,7 +4039,7 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>291.3144099306532</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -4064,16 +4064,16 @@
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>145.5577298436975</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>133.3468600696244</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>126.2254074071893</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>87.19633734978059</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4106,13 +4106,13 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>128.6883997580476</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>141.570871235817</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>216.2298571375572</v>
       </c>
       <c r="V45" t="n">
         <v>226.1116663261494</v>
@@ -4121,10 +4121,10 @@
         <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>195.9378182409833</v>
       </c>
       <c r="Y45" t="n">
-        <v>123.3199252729352</v>
+        <v>190.5961130869169</v>
       </c>
     </row>
     <row r="46">
@@ -4185,22 +4185,22 @@
         <v>102.1954786247584</v>
       </c>
       <c r="S46" t="n">
-        <v>144.8987363514678</v>
+        <v>148.314571740914</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>226.4920059644283</v>
       </c>
       <c r="U46" t="n">
-        <v>284.2627393580713</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>258.1279513971616</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>283.2948374677749</v>
       </c>
       <c r="X46" t="n">
-        <v>228.939939463578</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -5017,28 +5017,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>576.7436802667478</v>
+        <v>322.0419671861105</v>
       </c>
       <c r="C11" t="n">
-        <v>576.7436802667478</v>
+        <v>322.0419671861105</v>
       </c>
       <c r="D11" t="n">
-        <v>282.4867005388152</v>
+        <v>322.0419671861105</v>
       </c>
       <c r="E11" t="n">
-        <v>282.4867005388152</v>
+        <v>322.0419671861105</v>
       </c>
       <c r="F11" t="n">
-        <v>282.4867005388152</v>
+        <v>322.0419671861105</v>
       </c>
       <c r="G11" t="n">
-        <v>107.6331812734852</v>
+        <v>317.562132522385</v>
       </c>
       <c r="H11" t="n">
-        <v>107.6331812734852</v>
+        <v>23.30515279445227</v>
       </c>
       <c r="I11" t="n">
-        <v>23.30515279445226</v>
+        <v>23.30515279445227</v>
       </c>
       <c r="J11" t="n">
         <v>68.609512154854</v>
@@ -5047,16 +5047,16 @@
         <v>177.7340489673139</v>
       </c>
       <c r="L11" t="n">
-        <v>343.0953678443592</v>
+        <v>343.0953678443591</v>
       </c>
       <c r="M11" t="n">
         <v>552.823114733482</v>
       </c>
       <c r="N11" t="n">
-        <v>769.6931951386814</v>
+        <v>769.6931951386816</v>
       </c>
       <c r="O11" t="n">
-        <v>963.6425625903025</v>
+        <v>963.6425625903026</v>
       </c>
       <c r="P11" t="n">
         <v>1101.141797335157</v>
@@ -5074,19 +5074,19 @@
         <v>1165.257639722613</v>
       </c>
       <c r="U11" t="n">
-        <v>1165.257639722613</v>
+        <v>910.5559266419759</v>
       </c>
       <c r="V11" t="n">
-        <v>1165.257639722613</v>
+        <v>910.5559266419759</v>
       </c>
       <c r="W11" t="n">
-        <v>871.0006599946804</v>
+        <v>910.5559266419759</v>
       </c>
       <c r="X11" t="n">
-        <v>871.0006599946804</v>
+        <v>616.2989469140432</v>
       </c>
       <c r="Y11" t="n">
-        <v>871.0006599946804</v>
+        <v>616.2989469140432</v>
       </c>
     </row>
     <row r="12">
@@ -5096,28 +5096,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>219.7801283526915</v>
+        <v>342.1916481651639</v>
       </c>
       <c r="C12" t="n">
-        <v>219.7801283526915</v>
+        <v>180.4879754061186</v>
       </c>
       <c r="D12" t="n">
-        <v>219.7801283526915</v>
+        <v>180.4879754061186</v>
       </c>
       <c r="E12" t="n">
-        <v>72.75211840956271</v>
+        <v>180.4879754061186</v>
       </c>
       <c r="F12" t="n">
-        <v>72.75211840956271</v>
+        <v>180.4879754061186</v>
       </c>
       <c r="G12" t="n">
-        <v>49.4045680768871</v>
+        <v>52.98756388370519</v>
       </c>
       <c r="H12" t="n">
-        <v>49.4045680768871</v>
+        <v>23.30515279445227</v>
       </c>
       <c r="I12" t="n">
-        <v>23.30515279445226</v>
+        <v>23.30515279445227</v>
       </c>
       <c r="J12" t="n">
         <v>34.99861821101837</v>
@@ -5135,37 +5135,37 @@
         <v>666.4302144770295</v>
       </c>
       <c r="O12" t="n">
-        <v>838.108194143038</v>
+        <v>954.8314803083763</v>
       </c>
       <c r="P12" t="n">
-        <v>960.1867919003912</v>
+        <v>1076.91007806573</v>
       </c>
       <c r="Q12" t="n">
-        <v>1165.257639722613</v>
+        <v>1149.120349755696</v>
       </c>
       <c r="R12" t="n">
         <v>1165.257639722613</v>
       </c>
       <c r="S12" t="n">
-        <v>1035.269357138726</v>
+        <v>1165.257639722613</v>
       </c>
       <c r="T12" t="n">
-        <v>851.5343115920081</v>
+        <v>981.5225941758948</v>
       </c>
       <c r="U12" t="n">
-        <v>851.5343115920081</v>
+        <v>763.1085970672511</v>
       </c>
       <c r="V12" t="n">
-        <v>851.5343115920081</v>
+        <v>534.7129745155851</v>
       </c>
       <c r="W12" t="n">
-        <v>610.2184428253181</v>
+        <v>534.7129745155851</v>
       </c>
       <c r="X12" t="n">
-        <v>412.3014547031127</v>
+        <v>534.7129745155851</v>
       </c>
       <c r="Y12" t="n">
-        <v>219.7801283526915</v>
+        <v>342.1916481651639</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>306.1616444174605</v>
+        <v>23.30515279445227</v>
       </c>
       <c r="C13" t="n">
-        <v>136.5456748791408</v>
+        <v>23.30515279445227</v>
       </c>
       <c r="D13" t="n">
-        <v>136.5456748791408</v>
+        <v>23.30515279445227</v>
       </c>
       <c r="E13" t="n">
-        <v>136.5456748791408</v>
+        <v>23.30515279445227</v>
       </c>
       <c r="F13" t="n">
-        <v>136.5456748791408</v>
+        <v>23.30515279445227</v>
       </c>
       <c r="G13" t="n">
-        <v>136.5456748791408</v>
+        <v>23.30515279445227</v>
       </c>
       <c r="H13" t="n">
-        <v>136.5456748791408</v>
+        <v>23.30515279445227</v>
       </c>
       <c r="I13" t="n">
-        <v>23.30515279445226</v>
+        <v>23.30515279445227</v>
       </c>
       <c r="J13" t="n">
         <v>35.78637395129608</v>
       </c>
       <c r="K13" t="n">
-        <v>186.6295533996442</v>
+        <v>49.25032611407643</v>
       </c>
       <c r="L13" t="n">
-        <v>437.2621782085413</v>
+        <v>299.8829509229735</v>
       </c>
       <c r="M13" t="n">
-        <v>483.6946532454502</v>
+        <v>576.0573595503389</v>
       </c>
       <c r="N13" t="n">
-        <v>756.5367091850712</v>
+        <v>848.8994154899599</v>
       </c>
       <c r="O13" t="n">
-        <v>997.6319552902446</v>
+        <v>1089.994661595133</v>
       </c>
       <c r="P13" t="n">
-        <v>1118.529781827242</v>
+        <v>1165.257639722613</v>
       </c>
       <c r="Q13" t="n">
         <v>1165.257639722613</v>
       </c>
       <c r="R13" t="n">
-        <v>1062.029883535988</v>
+        <v>1062.029883535989</v>
       </c>
       <c r="S13" t="n">
-        <v>866.2630336583329</v>
+        <v>866.2630336583331</v>
       </c>
       <c r="T13" t="n">
-        <v>866.2630336583329</v>
+        <v>637.48322965386</v>
       </c>
       <c r="U13" t="n">
-        <v>866.2630336583329</v>
+        <v>350.349149494192</v>
       </c>
       <c r="V13" t="n">
-        <v>814.3532047077842</v>
+        <v>309.4615542770532</v>
       </c>
       <c r="W13" t="n">
-        <v>528.1968032251834</v>
+        <v>23.30515279445227</v>
       </c>
       <c r="X13" t="n">
-        <v>528.1968032251834</v>
+        <v>23.30515279445227</v>
       </c>
       <c r="Y13" t="n">
-        <v>306.1616444174605</v>
+        <v>23.30515279445227</v>
       </c>
     </row>
     <row r="14">
@@ -5254,46 +5254,46 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>990.4041204572831</v>
+        <v>317.562132522385</v>
       </c>
       <c r="C14" t="n">
-        <v>696.1471407293504</v>
+        <v>317.562132522385</v>
       </c>
       <c r="D14" t="n">
-        <v>401.8901610014178</v>
+        <v>317.562132522385</v>
       </c>
       <c r="E14" t="n">
-        <v>401.8901610014178</v>
+        <v>317.562132522385</v>
       </c>
       <c r="F14" t="n">
-        <v>107.6331812734852</v>
+        <v>317.562132522385</v>
       </c>
       <c r="G14" t="n">
-        <v>107.6331812734852</v>
+        <v>317.562132522385</v>
       </c>
       <c r="H14" t="n">
-        <v>107.6331812734852</v>
+        <v>23.30515279445227</v>
       </c>
       <c r="I14" t="n">
-        <v>23.30515279445226</v>
+        <v>23.30515279445227</v>
       </c>
       <c r="J14" t="n">
-        <v>68.6095121548542</v>
+        <v>68.60951215485386</v>
       </c>
       <c r="K14" t="n">
-        <v>177.7340489673141</v>
+        <v>177.7340489673139</v>
       </c>
       <c r="L14" t="n">
-        <v>343.0953678443593</v>
+        <v>343.0953678443592</v>
       </c>
       <c r="M14" t="n">
         <v>552.823114733482</v>
       </c>
       <c r="N14" t="n">
-        <v>769.6931951386814</v>
+        <v>769.6931951386816</v>
       </c>
       <c r="O14" t="n">
-        <v>963.6425625903025</v>
+        <v>963.6425625903026</v>
       </c>
       <c r="P14" t="n">
         <v>1101.141797335157</v>
@@ -5305,25 +5305,25 @@
         <v>1165.257639722613</v>
       </c>
       <c r="S14" t="n">
-        <v>1030.332586757185</v>
+        <v>1165.257639722613</v>
       </c>
       <c r="T14" t="n">
-        <v>1030.332586757185</v>
+        <v>950.9463257223886</v>
       </c>
       <c r="U14" t="n">
-        <v>990.4041204572831</v>
+        <v>696.2446126417512</v>
       </c>
       <c r="V14" t="n">
-        <v>990.4041204572831</v>
+        <v>401.9876329138186</v>
       </c>
       <c r="W14" t="n">
-        <v>990.4041204572831</v>
+        <v>317.562132522385</v>
       </c>
       <c r="X14" t="n">
-        <v>990.4041204572831</v>
+        <v>317.562132522385</v>
       </c>
       <c r="Y14" t="n">
-        <v>990.4041204572831</v>
+        <v>317.562132522385</v>
       </c>
     </row>
     <row r="15">
@@ -5333,49 +5333,49 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>393.1040692218285</v>
+        <v>86.69383682298704</v>
       </c>
       <c r="C15" t="n">
-        <v>393.1040692218285</v>
+        <v>86.69383682298704</v>
       </c>
       <c r="D15" t="n">
-        <v>393.1040692218285</v>
+        <v>86.69383682298704</v>
       </c>
       <c r="E15" t="n">
-        <v>246.0760592786997</v>
+        <v>86.69383682298704</v>
       </c>
       <c r="F15" t="n">
-        <v>111.3822612285741</v>
+        <v>86.69383682298704</v>
       </c>
       <c r="G15" t="n">
-        <v>111.3822612285741</v>
+        <v>23.30515279445227</v>
       </c>
       <c r="H15" t="n">
-        <v>23.30515279445226</v>
+        <v>23.30515279445227</v>
       </c>
       <c r="I15" t="n">
-        <v>23.30515279445226</v>
+        <v>23.30515279445227</v>
       </c>
       <c r="J15" t="n">
-        <v>34.99861821101834</v>
+        <v>34.99861821101837</v>
       </c>
       <c r="K15" t="n">
-        <v>118.4854082046996</v>
+        <v>118.4854082046997</v>
       </c>
       <c r="L15" t="n">
-        <v>406.8866740360464</v>
+        <v>268.3807649495733</v>
       </c>
       <c r="M15" t="n">
-        <v>597.5349406400592</v>
+        <v>556.7820307809201</v>
       </c>
       <c r="N15" t="n">
-        <v>804.9361235635025</v>
+        <v>764.1832137043634</v>
       </c>
       <c r="O15" t="n">
-        <v>976.6141032295109</v>
+        <v>1002.132079411653</v>
       </c>
       <c r="P15" t="n">
-        <v>1098.692700986864</v>
+        <v>1124.210677169006</v>
       </c>
       <c r="Q15" t="n">
         <v>1165.257639722613</v>
@@ -5384,25 +5384,25 @@
         <v>1165.257639722613</v>
       </c>
       <c r="S15" t="n">
-        <v>1035.269357138726</v>
+        <v>1165.257639722613</v>
       </c>
       <c r="T15" t="n">
-        <v>851.5343115920081</v>
+        <v>1165.257639722613</v>
       </c>
       <c r="U15" t="n">
-        <v>634.4199379885184</v>
+        <v>946.8436426139697</v>
       </c>
       <c r="V15" t="n">
-        <v>634.4199379885184</v>
+        <v>718.4480200623036</v>
       </c>
       <c r="W15" t="n">
-        <v>393.1040692218285</v>
+        <v>477.1321512956137</v>
       </c>
       <c r="X15" t="n">
-        <v>393.1040692218285</v>
+        <v>279.2151631734082</v>
       </c>
       <c r="Y15" t="n">
-        <v>393.1040692218285</v>
+        <v>86.69383682298704</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>347.8764893940407</v>
+        <v>23.30515279445227</v>
       </c>
       <c r="C16" t="n">
-        <v>347.8764893940407</v>
+        <v>23.30515279445227</v>
       </c>
       <c r="D16" t="n">
-        <v>347.8764893940407</v>
+        <v>23.30515279445227</v>
       </c>
       <c r="E16" t="n">
-        <v>195.8674751553596</v>
+        <v>23.30515279445227</v>
       </c>
       <c r="F16" t="n">
-        <v>43.38682018113667</v>
+        <v>23.30515279445227</v>
       </c>
       <c r="G16" t="n">
-        <v>43.38682018113667</v>
+        <v>23.30515279445227</v>
       </c>
       <c r="H16" t="n">
-        <v>43.38682018113667</v>
+        <v>23.30515279445227</v>
       </c>
       <c r="I16" t="n">
-        <v>23.30515279445226</v>
+        <v>23.30515279445227</v>
       </c>
       <c r="J16" t="n">
-        <v>35.78637395129607</v>
+        <v>23.30515279445227</v>
       </c>
       <c r="K16" t="n">
-        <v>49.2503261140764</v>
+        <v>36.76910495723261</v>
       </c>
       <c r="L16" t="n">
-        <v>299.8829509229734</v>
+        <v>287.4017297661297</v>
       </c>
       <c r="M16" t="n">
-        <v>419.5780222181524</v>
+        <v>563.5761383934951</v>
       </c>
       <c r="N16" t="n">
-        <v>692.4200781577733</v>
+        <v>836.418194333116</v>
       </c>
       <c r="O16" t="n">
-        <v>933.5153242629467</v>
+        <v>1077.51344043829</v>
       </c>
       <c r="P16" t="n">
-        <v>1118.529781827242</v>
+        <v>1165.257639722613</v>
       </c>
       <c r="Q16" t="n">
         <v>1165.257639722613</v>
       </c>
       <c r="R16" t="n">
-        <v>1062.029883535988</v>
+        <v>1165.257639722613</v>
       </c>
       <c r="S16" t="n">
-        <v>866.2630336583329</v>
+        <v>1165.257639722613</v>
       </c>
       <c r="T16" t="n">
-        <v>866.2630336583329</v>
+        <v>936.4778357181401</v>
       </c>
       <c r="U16" t="n">
-        <v>579.1289534986649</v>
+        <v>649.3437555584721</v>
       </c>
       <c r="V16" t="n">
-        <v>579.1289534986649</v>
+        <v>388.6084511168947</v>
       </c>
       <c r="W16" t="n">
-        <v>579.1289534986649</v>
+        <v>388.6084511168947</v>
       </c>
       <c r="X16" t="n">
-        <v>347.8764893940407</v>
+        <v>157.3559870122705</v>
       </c>
       <c r="Y16" t="n">
-        <v>347.8764893940407</v>
+        <v>23.30515279445227</v>
       </c>
     </row>
     <row r="17">
@@ -5491,16 +5491,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>317.562132522385</v>
+        <v>906.0760919782504</v>
       </c>
       <c r="C17" t="n">
-        <v>317.562132522385</v>
+        <v>906.0760919782504</v>
       </c>
       <c r="D17" t="n">
-        <v>317.562132522385</v>
+        <v>906.0760919782504</v>
       </c>
       <c r="E17" t="n">
-        <v>317.562132522385</v>
+        <v>611.8191122503176</v>
       </c>
       <c r="F17" t="n">
         <v>317.562132522385</v>
@@ -5515,22 +5515,22 @@
         <v>23.30515279445227</v>
       </c>
       <c r="J17" t="n">
-        <v>68.609512154854</v>
+        <v>68.60951215485386</v>
       </c>
       <c r="K17" t="n">
         <v>177.7340489673139</v>
       </c>
       <c r="L17" t="n">
-        <v>343.0953678443594</v>
+        <v>343.0953678443592</v>
       </c>
       <c r="M17" t="n">
-        <v>552.8231147334823</v>
+        <v>552.823114733482</v>
       </c>
       <c r="N17" t="n">
         <v>769.6931951386816</v>
       </c>
       <c r="O17" t="n">
-        <v>963.6425625903028</v>
+        <v>963.6425625903026</v>
       </c>
       <c r="P17" t="n">
         <v>1101.141797335157</v>
@@ -5545,22 +5545,22 @@
         <v>1030.332586757185</v>
       </c>
       <c r="T17" t="n">
-        <v>1030.332586757185</v>
+        <v>906.0760919782504</v>
       </c>
       <c r="U17" t="n">
-        <v>1030.332586757185</v>
+        <v>906.0760919782504</v>
       </c>
       <c r="V17" t="n">
-        <v>736.0756070292521</v>
+        <v>906.0760919782504</v>
       </c>
       <c r="W17" t="n">
-        <v>736.0756070292521</v>
+        <v>906.0760919782504</v>
       </c>
       <c r="X17" t="n">
-        <v>611.8191122503176</v>
+        <v>906.0760919782504</v>
       </c>
       <c r="Y17" t="n">
-        <v>317.562132522385</v>
+        <v>906.0760919782504</v>
       </c>
     </row>
     <row r="18">
@@ -5570,25 +5570,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>185.0088255534976</v>
+        <v>184.0983661270128</v>
       </c>
       <c r="C18" t="n">
-        <v>23.30515279445227</v>
+        <v>184.0983661270128</v>
       </c>
       <c r="D18" t="n">
-        <v>23.30515279445227</v>
+        <v>184.0983661270128</v>
       </c>
       <c r="E18" t="n">
-        <v>23.30515279445227</v>
+        <v>184.0983661270128</v>
       </c>
       <c r="F18" t="n">
-        <v>23.30515279445227</v>
+        <v>49.4045680768871</v>
       </c>
       <c r="G18" t="n">
-        <v>23.30515279445227</v>
+        <v>49.4045680768871</v>
       </c>
       <c r="H18" t="n">
-        <v>23.30515279445227</v>
+        <v>49.4045680768871</v>
       </c>
       <c r="I18" t="n">
         <v>23.30515279445227</v>
@@ -5597,19 +5597,19 @@
         <v>34.99861821101837</v>
       </c>
       <c r="K18" t="n">
-        <v>118.4854082046997</v>
+        <v>282.5092934733144</v>
       </c>
       <c r="L18" t="n">
-        <v>268.3807649495733</v>
+        <v>432.404650218188</v>
       </c>
       <c r="M18" t="n">
-        <v>459.0290315535862</v>
+        <v>623.0529168222008</v>
       </c>
       <c r="N18" t="n">
-        <v>666.4302144770295</v>
+        <v>830.4540997456443</v>
       </c>
       <c r="O18" t="n">
-        <v>838.108194143038</v>
+        <v>1002.132079411653</v>
       </c>
       <c r="P18" t="n">
         <v>1124.210677169006</v>
@@ -5630,16 +5630,16 @@
         <v>851.5343115920083</v>
       </c>
       <c r="V18" t="n">
-        <v>734.866582807385</v>
+        <v>623.1386890403422</v>
       </c>
       <c r="W18" t="n">
-        <v>734.866582807385</v>
+        <v>381.8228202736523</v>
       </c>
       <c r="X18" t="n">
-        <v>536.9495946851796</v>
+        <v>376.6196924774339</v>
       </c>
       <c r="Y18" t="n">
-        <v>344.4282683347585</v>
+        <v>184.0983661270128</v>
       </c>
     </row>
     <row r="19">
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>154.7127664045597</v>
+        <v>453.7073724688397</v>
       </c>
       <c r="C19" t="n">
-        <v>154.7127664045597</v>
+        <v>453.7073724688397</v>
       </c>
       <c r="D19" t="n">
-        <v>23.30515279445227</v>
+        <v>300.6354792966024</v>
       </c>
       <c r="E19" t="n">
-        <v>23.30515279445227</v>
+        <v>148.6264650579212</v>
       </c>
       <c r="F19" t="n">
-        <v>23.30515279445227</v>
+        <v>148.6264650579212</v>
       </c>
       <c r="G19" t="n">
-        <v>23.30515279445227</v>
+        <v>148.6264650579212</v>
       </c>
       <c r="H19" t="n">
         <v>23.30515279445227</v>
@@ -5673,19 +5673,19 @@
         <v>23.30515279445227</v>
       </c>
       <c r="J19" t="n">
-        <v>23.30515279445227</v>
+        <v>35.78637395129608</v>
       </c>
       <c r="K19" t="n">
-        <v>36.76910495723261</v>
+        <v>186.6295533996442</v>
       </c>
       <c r="L19" t="n">
-        <v>287.4017297661297</v>
+        <v>437.2621782085413</v>
       </c>
       <c r="M19" t="n">
-        <v>563.5761383934951</v>
+        <v>713.4365868359067</v>
       </c>
       <c r="N19" t="n">
-        <v>692.4200781577736</v>
+        <v>902.2547027706643</v>
       </c>
       <c r="O19" t="n">
         <v>933.5153242629469</v>
@@ -5697,28 +5697,28 @@
         <v>1165.257639722613</v>
       </c>
       <c r="R19" t="n">
-        <v>1062.029883535989</v>
+        <v>1165.257639722613</v>
       </c>
       <c r="S19" t="n">
-        <v>866.2630336583331</v>
+        <v>1165.257639722613</v>
       </c>
       <c r="T19" t="n">
-        <v>637.48322965386</v>
+        <v>936.4778357181401</v>
       </c>
       <c r="U19" t="n">
-        <v>637.48322965386</v>
+        <v>936.4778357181401</v>
       </c>
       <c r="V19" t="n">
-        <v>376.7479252122826</v>
+        <v>675.7425312765627</v>
       </c>
       <c r="W19" t="n">
-        <v>376.7479252122826</v>
+        <v>675.7425312765627</v>
       </c>
       <c r="X19" t="n">
-        <v>376.7479252122826</v>
+        <v>675.7425312765627</v>
       </c>
       <c r="Y19" t="n">
-        <v>154.7127664045597</v>
+        <v>453.7073724688397</v>
       </c>
     </row>
     <row r="20">
@@ -5728,46 +5728,46 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>317.5621325223849</v>
+        <v>576.7436802667478</v>
       </c>
       <c r="C20" t="n">
-        <v>23.30515279445226</v>
+        <v>576.7436802667478</v>
       </c>
       <c r="D20" t="n">
-        <v>23.30515279445226</v>
+        <v>576.7436802667478</v>
       </c>
       <c r="E20" t="n">
-        <v>23.30515279445226</v>
+        <v>401.8901610014178</v>
       </c>
       <c r="F20" t="n">
-        <v>23.30515279445226</v>
+        <v>107.6331812734852</v>
       </c>
       <c r="G20" t="n">
-        <v>23.30515279445226</v>
+        <v>107.6331812734852</v>
       </c>
       <c r="H20" t="n">
-        <v>23.30515279445226</v>
+        <v>107.6331812734852</v>
       </c>
       <c r="I20" t="n">
         <v>23.30515279445226</v>
       </c>
       <c r="J20" t="n">
-        <v>68.60951215485395</v>
+        <v>68.609512154854</v>
       </c>
       <c r="K20" t="n">
-        <v>177.7340489673138</v>
+        <v>177.7340489673139</v>
       </c>
       <c r="L20" t="n">
         <v>343.0953678443592</v>
       </c>
       <c r="M20" t="n">
-        <v>552.8231147334823</v>
+        <v>552.823114733482</v>
       </c>
       <c r="N20" t="n">
-        <v>769.6931951386816</v>
+        <v>769.6931951386814</v>
       </c>
       <c r="O20" t="n">
-        <v>963.6425625903024</v>
+        <v>963.6425625903025</v>
       </c>
       <c r="P20" t="n">
         <v>1101.141797335157</v>
@@ -5779,25 +5779,25 @@
         <v>1165.257639722613</v>
       </c>
       <c r="S20" t="n">
-        <v>1030.332586757185</v>
+        <v>1165.257639722613</v>
       </c>
       <c r="T20" t="n">
-        <v>866.5208253309548</v>
+        <v>1165.257639722613</v>
       </c>
       <c r="U20" t="n">
-        <v>611.8191122503175</v>
+        <v>1165.257639722613</v>
       </c>
       <c r="V20" t="n">
-        <v>611.8191122503175</v>
+        <v>1165.257639722613</v>
       </c>
       <c r="W20" t="n">
-        <v>611.8191122503175</v>
+        <v>1165.257639722613</v>
       </c>
       <c r="X20" t="n">
-        <v>611.8191122503175</v>
+        <v>1165.257639722613</v>
       </c>
       <c r="Y20" t="n">
-        <v>317.5621325223849</v>
+        <v>871.0006599946804</v>
       </c>
     </row>
     <row r="21">
@@ -5807,19 +5807,19 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>312.509237075911</v>
+        <v>185.0088255534976</v>
       </c>
       <c r="C21" t="n">
-        <v>150.8055643168657</v>
+        <v>23.30515279445226</v>
       </c>
       <c r="D21" t="n">
-        <v>150.8055643168657</v>
+        <v>23.30515279445226</v>
       </c>
       <c r="E21" t="n">
-        <v>150.8055643168657</v>
+        <v>23.30515279445226</v>
       </c>
       <c r="F21" t="n">
-        <v>150.8055643168657</v>
+        <v>23.30515279445226</v>
       </c>
       <c r="G21" t="n">
         <v>23.30515279445226</v>
@@ -5831,25 +5831,25 @@
         <v>23.30515279445226</v>
       </c>
       <c r="J21" t="n">
-        <v>34.99861821101834</v>
+        <v>197.2777806941245</v>
       </c>
       <c r="K21" t="n">
-        <v>118.4854082046996</v>
+        <v>280.7645706878059</v>
       </c>
       <c r="L21" t="n">
-        <v>268.3807649495732</v>
+        <v>430.6599274326795</v>
       </c>
       <c r="M21" t="n">
-        <v>459.029031553586</v>
+        <v>621.3081940366924</v>
       </c>
       <c r="N21" t="n">
-        <v>666.4302144770294</v>
+        <v>828.7093769601358</v>
       </c>
       <c r="O21" t="n">
-        <v>838.1081941430377</v>
+        <v>1000.387356626144</v>
       </c>
       <c r="P21" t="n">
-        <v>1124.210677169006</v>
+        <v>1122.465954383498</v>
       </c>
       <c r="Q21" t="n">
         <v>1165.257639722613</v>
@@ -5861,22 +5861,22 @@
         <v>1165.257639722613</v>
       </c>
       <c r="T21" t="n">
-        <v>981.5225941758946</v>
+        <v>1165.257639722613</v>
       </c>
       <c r="U21" t="n">
-        <v>981.5225941758946</v>
+        <v>946.8436426139695</v>
       </c>
       <c r="V21" t="n">
-        <v>753.1269716242285</v>
+        <v>718.4480200623034</v>
       </c>
       <c r="W21" t="n">
-        <v>669.8456679793773</v>
+        <v>575.4471400261242</v>
       </c>
       <c r="X21" t="n">
-        <v>471.9286798571719</v>
+        <v>377.5301519039187</v>
       </c>
       <c r="Y21" t="n">
-        <v>471.9286798571719</v>
+        <v>185.0088255534976</v>
       </c>
     </row>
     <row r="22">
@@ -5886,19 +5886,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>23.30515279445226</v>
+        <v>191.1953133206804</v>
       </c>
       <c r="C22" t="n">
-        <v>23.30515279445226</v>
+        <v>191.1953133206804</v>
       </c>
       <c r="D22" t="n">
-        <v>23.30515279445226</v>
+        <v>191.1953133206804</v>
       </c>
       <c r="E22" t="n">
-        <v>23.30515279445226</v>
+        <v>191.1953133206804</v>
       </c>
       <c r="F22" t="n">
-        <v>23.30515279445226</v>
+        <v>191.1953133206804</v>
       </c>
       <c r="G22" t="n">
         <v>23.30515279445226</v>
@@ -5913,49 +5913,49 @@
         <v>23.30515279445226</v>
       </c>
       <c r="K22" t="n">
-        <v>174.1483322428004</v>
+        <v>149.333471290152</v>
       </c>
       <c r="L22" t="n">
-        <v>424.7809570516974</v>
+        <v>399.9660960990491</v>
       </c>
       <c r="M22" t="n">
-        <v>640.7074237969747</v>
+        <v>676.1405047264145</v>
       </c>
       <c r="N22" t="n">
-        <v>692.4200781577733</v>
+        <v>948.9825606660355</v>
       </c>
       <c r="O22" t="n">
-        <v>933.5153242629467</v>
+        <v>980.2431821583182</v>
       </c>
       <c r="P22" t="n">
-        <v>1118.529781827242</v>
+        <v>1165.257639722613</v>
       </c>
       <c r="Q22" t="n">
         <v>1165.257639722613</v>
       </c>
       <c r="R22" t="n">
-        <v>1062.029883535988</v>
+        <v>1165.257639722613</v>
       </c>
       <c r="S22" t="n">
-        <v>866.2630336583329</v>
+        <v>1165.257639722613</v>
       </c>
       <c r="T22" t="n">
-        <v>637.4832296538598</v>
+        <v>1165.257639722613</v>
       </c>
       <c r="U22" t="n">
-        <v>637.4832296538598</v>
+        <v>1088.773609358985</v>
       </c>
       <c r="V22" t="n">
-        <v>438.1129855834563</v>
+        <v>828.0383049174073</v>
       </c>
       <c r="W22" t="n">
-        <v>438.1129855834563</v>
+        <v>828.0383049174073</v>
       </c>
       <c r="X22" t="n">
-        <v>206.8605214788321</v>
+        <v>596.7858408127831</v>
       </c>
       <c r="Y22" t="n">
-        <v>206.8605214788321</v>
+        <v>374.7506820050602</v>
       </c>
     </row>
     <row r="23">
@@ -5965,16 +5965,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>597.6752242143509</v>
+        <v>399.2803769398969</v>
       </c>
       <c r="C23" t="n">
-        <v>597.6752242143509</v>
+        <v>399.2803769398969</v>
       </c>
       <c r="D23" t="n">
-        <v>227.6971136325339</v>
+        <v>399.2803769398969</v>
       </c>
       <c r="E23" t="n">
-        <v>227.6971136325339</v>
+        <v>399.2803769398969</v>
       </c>
       <c r="F23" t="n">
         <v>29.3022663580799</v>
@@ -5989,25 +5989,25 @@
         <v>29.3022663580799</v>
       </c>
       <c r="J23" t="n">
-        <v>74.60662571848161</v>
+        <v>95.21579735693842</v>
       </c>
       <c r="K23" t="n">
-        <v>183.7311625309415</v>
+        <v>204.3403341693983</v>
       </c>
       <c r="L23" t="n">
-        <v>349.0924814079868</v>
+        <v>369.7016530464437</v>
       </c>
       <c r="M23" t="n">
-        <v>558.8202282971099</v>
+        <v>579.4293999355667</v>
       </c>
       <c r="N23" t="n">
-        <v>775.6903087023094</v>
+        <v>796.2994803407662</v>
       </c>
       <c r="O23" t="n">
-        <v>1138.305854883548</v>
+        <v>990.2488477923873</v>
       </c>
       <c r="P23" t="n">
-        <v>1275.805089628403</v>
+        <v>1127.748082537242</v>
       </c>
       <c r="Q23" t="n">
         <v>1465.113317903995</v>
@@ -6016,25 +6016,25 @@
         <v>1465.113317903995</v>
       </c>
       <c r="S23" t="n">
-        <v>1330.188264938567</v>
+        <v>1465.113317903995</v>
       </c>
       <c r="T23" t="n">
-        <v>1330.188264938567</v>
+        <v>1386.49513074475</v>
       </c>
       <c r="U23" t="n">
-        <v>1330.188264938567</v>
+        <v>1131.793417664113</v>
       </c>
       <c r="V23" t="n">
-        <v>1330.188264938567</v>
+        <v>1131.793417664113</v>
       </c>
       <c r="W23" t="n">
-        <v>967.6533347961679</v>
+        <v>769.258487521714</v>
       </c>
       <c r="X23" t="n">
-        <v>967.6533347961679</v>
+        <v>399.2803769398969</v>
       </c>
       <c r="Y23" t="n">
-        <v>597.6752242143509</v>
+        <v>399.2803769398969</v>
       </c>
     </row>
     <row r="24">
@@ -6044,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>156.8026778804933</v>
+        <v>630.4724128748901</v>
       </c>
       <c r="C24" t="n">
-        <v>156.8026778804933</v>
+        <v>468.7687401158448</v>
       </c>
       <c r="D24" t="n">
-        <v>156.8026778804933</v>
+        <v>329.9301031060569</v>
       </c>
       <c r="E24" t="n">
-        <v>156.8026778804933</v>
+        <v>182.9020931629281</v>
       </c>
       <c r="F24" t="n">
-        <v>156.8026778804933</v>
+        <v>182.9020931629281</v>
       </c>
       <c r="G24" t="n">
-        <v>29.3022663580799</v>
+        <v>55.40168164051474</v>
       </c>
       <c r="H24" t="n">
-        <v>29.3022663580799</v>
+        <v>55.40168164051474</v>
       </c>
       <c r="I24" t="n">
         <v>29.3022663580799</v>
       </c>
       <c r="J24" t="n">
-        <v>40.995731774646</v>
+        <v>203.2748942577522</v>
       </c>
       <c r="K24" t="n">
-        <v>124.4825217683273</v>
+        <v>565.8904404389909</v>
       </c>
       <c r="L24" t="n">
-        <v>274.3778785132009</v>
+        <v>715.7857971838646</v>
       </c>
       <c r="M24" t="n">
-        <v>465.0261451172138</v>
+        <v>906.4340637878774</v>
       </c>
       <c r="N24" t="n">
-        <v>827.6416912984525</v>
+        <v>1113.835246711321</v>
       </c>
       <c r="O24" t="n">
-        <v>1190.257237479691</v>
+        <v>1285.513226377329</v>
       </c>
       <c r="P24" t="n">
-        <v>1407.929065383471</v>
+        <v>1407.591824134683</v>
       </c>
       <c r="Q24" t="n">
-        <v>1448.976027937078</v>
+        <v>1465.113317903995</v>
       </c>
       <c r="R24" t="n">
         <v>1465.113317903995</v>
       </c>
       <c r="S24" t="n">
-        <v>1335.125035320109</v>
+        <v>1389.957886433719</v>
       </c>
       <c r="T24" t="n">
-        <v>1151.38998977339</v>
+        <v>1206.222840887</v>
       </c>
       <c r="U24" t="n">
-        <v>932.9759926647466</v>
+        <v>987.8088437783564</v>
       </c>
       <c r="V24" t="n">
-        <v>704.5803701130806</v>
+        <v>987.8088437783564</v>
       </c>
       <c r="W24" t="n">
-        <v>463.2645013463906</v>
+        <v>987.8088437783564</v>
       </c>
       <c r="X24" t="n">
-        <v>463.2645013463906</v>
+        <v>789.8918556561509</v>
       </c>
       <c r="Y24" t="n">
-        <v>270.7431749959694</v>
+        <v>789.8918556561509</v>
       </c>
     </row>
     <row r="25">
@@ -6123,40 +6123,40 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>418.9523635709498</v>
+        <v>349.136906866293</v>
       </c>
       <c r="C25" t="n">
-        <v>249.3363940326301</v>
+        <v>179.5209373279732</v>
       </c>
       <c r="D25" t="n">
-        <v>249.3363940326301</v>
+        <v>179.5209373279732</v>
       </c>
       <c r="E25" t="n">
-        <v>249.3363940326301</v>
+        <v>179.5209373279732</v>
       </c>
       <c r="F25" t="n">
-        <v>249.3363940326301</v>
+        <v>179.5209373279732</v>
       </c>
       <c r="G25" t="n">
-        <v>81.44623350640202</v>
+        <v>179.5209373279732</v>
       </c>
       <c r="H25" t="n">
-        <v>81.44623350640202</v>
+        <v>29.3022663580799</v>
       </c>
       <c r="I25" t="n">
         <v>29.3022663580799</v>
       </c>
       <c r="J25" t="n">
-        <v>41.78348751492365</v>
+        <v>41.78348751492368</v>
       </c>
       <c r="K25" t="n">
         <v>192.6266669632718</v>
       </c>
       <c r="L25" t="n">
-        <v>443.2592917721689</v>
+        <v>443.2592917721691</v>
       </c>
       <c r="M25" t="n">
-        <v>719.4337003995344</v>
+        <v>719.4337003995347</v>
       </c>
       <c r="N25" t="n">
         <v>992.2757563391556</v>
@@ -6171,28 +6171,28 @@
         <v>1465.113317903995</v>
       </c>
       <c r="R25" t="n">
-        <v>1361.885561717371</v>
+        <v>1449.226697979003</v>
       </c>
       <c r="S25" t="n">
-        <v>1166.118711839715</v>
+        <v>1253.459848101347</v>
       </c>
       <c r="T25" t="n">
-        <v>937.338907835242</v>
+        <v>1024.680044096874</v>
       </c>
       <c r="U25" t="n">
-        <v>650.2048276755741</v>
+        <v>1024.680044096874</v>
       </c>
       <c r="V25" t="n">
-        <v>650.2048276755741</v>
+        <v>763.944739655297</v>
       </c>
       <c r="W25" t="n">
-        <v>650.2048276755741</v>
+        <v>763.944739655297</v>
       </c>
       <c r="X25" t="n">
-        <v>418.9523635709498</v>
+        <v>532.6922755506728</v>
       </c>
       <c r="Y25" t="n">
-        <v>418.9523635709498</v>
+        <v>532.6922755506728</v>
       </c>
     </row>
     <row r="26">
@@ -6202,49 +6202,49 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>128.6621971334888</v>
+        <v>960.2101543567499</v>
       </c>
       <c r="C26" t="n">
-        <v>128.6621971334888</v>
+        <v>590.2320437749329</v>
       </c>
       <c r="D26" t="n">
-        <v>128.6621971334888</v>
+        <v>590.2320437749329</v>
       </c>
       <c r="E26" t="n">
-        <v>29.3022663580799</v>
+        <v>483.6084054189298</v>
       </c>
       <c r="F26" t="n">
-        <v>29.3022663580799</v>
+        <v>113.6302948371128</v>
       </c>
       <c r="G26" t="n">
-        <v>29.3022663580799</v>
+        <v>113.6302948371128</v>
       </c>
       <c r="H26" t="n">
-        <v>29.3022663580799</v>
+        <v>113.6302948371128</v>
       </c>
       <c r="I26" t="n">
         <v>29.3022663580799</v>
       </c>
       <c r="J26" t="n">
-        <v>74.60662571848161</v>
+        <v>292.2339694449406</v>
       </c>
       <c r="K26" t="n">
-        <v>204.3403341693983</v>
+        <v>401.3585062574004</v>
       </c>
       <c r="L26" t="n">
-        <v>369.7016530464437</v>
+        <v>566.7198251344457</v>
       </c>
       <c r="M26" t="n">
-        <v>579.4293999355667</v>
+        <v>776.4475720235688</v>
       </c>
       <c r="N26" t="n">
-        <v>796.2994803407662</v>
+        <v>993.3176524287683</v>
       </c>
       <c r="O26" t="n">
-        <v>990.2488477923873</v>
+        <v>1187.267019880389</v>
       </c>
       <c r="P26" t="n">
-        <v>1127.748082537242</v>
+        <v>1324.766254625244</v>
       </c>
       <c r="Q26" t="n">
         <v>1465.113317903995</v>
@@ -6256,22 +6256,22 @@
         <v>1330.188264938567</v>
       </c>
       <c r="T26" t="n">
-        <v>1115.876950938342</v>
+        <v>1330.188264938567</v>
       </c>
       <c r="U26" t="n">
-        <v>861.1752378577048</v>
+        <v>1330.188264938567</v>
       </c>
       <c r="V26" t="n">
-        <v>861.1752378577048</v>
+        <v>1330.188264938567</v>
       </c>
       <c r="W26" t="n">
-        <v>498.6403077153058</v>
+        <v>1330.188264938567</v>
       </c>
       <c r="X26" t="n">
-        <v>498.6403077153058</v>
+        <v>960.2101543567499</v>
       </c>
       <c r="Y26" t="n">
-        <v>128.6621971334888</v>
+        <v>960.2101543567499</v>
       </c>
     </row>
     <row r="27">
@@ -6281,22 +6281,22 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>413.7768456013727</v>
+        <v>270.7431749959694</v>
       </c>
       <c r="C27" t="n">
-        <v>252.0731728423274</v>
+        <v>109.0395022369241</v>
       </c>
       <c r="D27" t="n">
-        <v>252.0731728423274</v>
+        <v>109.0395022369241</v>
       </c>
       <c r="E27" t="n">
-        <v>252.0731728423274</v>
+        <v>29.3022663580799</v>
       </c>
       <c r="F27" t="n">
-        <v>117.3793747922017</v>
+        <v>29.3022663580799</v>
       </c>
       <c r="G27" t="n">
-        <v>117.3793747922017</v>
+        <v>29.3022663580799</v>
       </c>
       <c r="H27" t="n">
         <v>29.3022663580799</v>
@@ -6305,28 +6305,28 @@
         <v>29.3022663580799</v>
       </c>
       <c r="J27" t="n">
-        <v>40.995731774646</v>
+        <v>203.2748942577522</v>
       </c>
       <c r="K27" t="n">
-        <v>124.4825217683273</v>
+        <v>565.8904404389909</v>
       </c>
       <c r="L27" t="n">
-        <v>274.3778785132009</v>
+        <v>715.7857971838646</v>
       </c>
       <c r="M27" t="n">
-        <v>465.0261451172138</v>
+        <v>906.4340637878774</v>
       </c>
       <c r="N27" t="n">
-        <v>827.6416912984525</v>
+        <v>1113.835246711321</v>
       </c>
       <c r="O27" t="n">
-        <v>1061.450809169149</v>
+        <v>1285.513226377329</v>
       </c>
       <c r="P27" t="n">
-        <v>1424.066355350388</v>
+        <v>1407.591824134683</v>
       </c>
       <c r="Q27" t="n">
-        <v>1465.113317903995</v>
+        <v>1448.976027937078</v>
       </c>
       <c r="R27" t="n">
         <v>1465.113317903995</v>
@@ -6341,16 +6341,16 @@
         <v>932.9759926647466</v>
       </c>
       <c r="V27" t="n">
-        <v>932.9759926647466</v>
+        <v>704.5803701130806</v>
       </c>
       <c r="W27" t="n">
-        <v>804.2151600739993</v>
+        <v>463.2645013463906</v>
       </c>
       <c r="X27" t="n">
-        <v>606.2981719517938</v>
+        <v>463.2645013463906</v>
       </c>
       <c r="Y27" t="n">
-        <v>413.7768456013727</v>
+        <v>270.7431749959694</v>
       </c>
     </row>
     <row r="28">
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>351.9901290686369</v>
+        <v>631.4384871088123</v>
       </c>
       <c r="C28" t="n">
-        <v>182.3741595303172</v>
+        <v>631.4384871088123</v>
       </c>
       <c r="D28" t="n">
-        <v>29.3022663580799</v>
+        <v>478.366593936575</v>
       </c>
       <c r="E28" t="n">
-        <v>29.3022663580799</v>
+        <v>326.3575796978938</v>
       </c>
       <c r="F28" t="n">
-        <v>29.3022663580799</v>
+        <v>326.3575796978938</v>
       </c>
       <c r="G28" t="n">
-        <v>29.3022663580799</v>
+        <v>158.4674191716657</v>
       </c>
       <c r="H28" t="n">
         <v>29.3022663580799</v>
@@ -6384,10 +6384,10 @@
         <v>29.3022663580799</v>
       </c>
       <c r="J28" t="n">
-        <v>41.78348751492365</v>
+        <v>41.78348751492373</v>
       </c>
       <c r="K28" t="n">
-        <v>192.6266669632718</v>
+        <v>192.6266669632719</v>
       </c>
       <c r="L28" t="n">
         <v>443.2592917721689</v>
@@ -6396,7 +6396,7 @@
         <v>719.4337003995344</v>
       </c>
       <c r="N28" t="n">
-        <v>992.2757563391556</v>
+        <v>992.2757563391554</v>
       </c>
       <c r="O28" t="n">
         <v>1233.371002444329</v>
@@ -6408,28 +6408,28 @@
         <v>1465.113317903995</v>
       </c>
       <c r="R28" t="n">
-        <v>1361.885561717371</v>
+        <v>1361.88556171737</v>
       </c>
       <c r="S28" t="n">
-        <v>1361.885561717371</v>
+        <v>1361.88556171737</v>
       </c>
       <c r="T28" t="n">
-        <v>1133.105757712897</v>
+        <v>1361.88556171737</v>
       </c>
       <c r="U28" t="n">
-        <v>1133.105757712897</v>
+        <v>1361.88556171737</v>
       </c>
       <c r="V28" t="n">
-        <v>872.37045327132</v>
+        <v>1101.150257275793</v>
       </c>
       <c r="W28" t="n">
-        <v>805.277751980984</v>
+        <v>814.9938557931921</v>
       </c>
       <c r="X28" t="n">
-        <v>574.0252878763598</v>
+        <v>814.9938557931921</v>
       </c>
       <c r="Y28" t="n">
-        <v>351.9901290686369</v>
+        <v>814.9938557931921</v>
       </c>
     </row>
     <row r="29">
@@ -6439,49 +6439,49 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>29.3022663580799</v>
+        <v>1223.564626582564</v>
       </c>
       <c r="C29" t="n">
-        <v>29.3022663580799</v>
+        <v>1223.564626582564</v>
       </c>
       <c r="D29" t="n">
-        <v>29.3022663580799</v>
+        <v>1223.564626582564</v>
       </c>
       <c r="E29" t="n">
-        <v>29.3022663580799</v>
+        <v>853.5865160007468</v>
       </c>
       <c r="F29" t="n">
-        <v>29.3022663580799</v>
+        <v>483.6084054189298</v>
       </c>
       <c r="G29" t="n">
-        <v>29.3022663580799</v>
+        <v>113.6302948371128</v>
       </c>
       <c r="H29" t="n">
-        <v>29.3022663580799</v>
+        <v>113.6302948371128</v>
       </c>
       <c r="I29" t="n">
         <v>29.3022663580799</v>
       </c>
       <c r="J29" t="n">
-        <v>74.60662571848161</v>
+        <v>292.2339694449406</v>
       </c>
       <c r="K29" t="n">
-        <v>437.2221718997204</v>
+        <v>401.3585062574004</v>
       </c>
       <c r="L29" t="n">
-        <v>602.5834907767658</v>
+        <v>566.7198251344457</v>
       </c>
       <c r="M29" t="n">
-        <v>812.3112376658888</v>
+        <v>776.4475720235688</v>
       </c>
       <c r="N29" t="n">
-        <v>1029.181318071088</v>
+        <v>993.3176524287683</v>
       </c>
       <c r="O29" t="n">
-        <v>1223.130685522709</v>
+        <v>1187.267019880389</v>
       </c>
       <c r="P29" t="n">
-        <v>1400.997475516539</v>
+        <v>1324.766254625244</v>
       </c>
       <c r="Q29" t="n">
         <v>1465.113317903995</v>
@@ -6496,19 +6496,19 @@
         <v>1330.188264938567</v>
       </c>
       <c r="U29" t="n">
-        <v>1131.793417664113</v>
+        <v>1330.188264938567</v>
       </c>
       <c r="V29" t="n">
-        <v>1131.793417664113</v>
+        <v>1330.188264938567</v>
       </c>
       <c r="W29" t="n">
-        <v>769.258487521714</v>
+        <v>1330.188264938567</v>
       </c>
       <c r="X29" t="n">
-        <v>399.2803769398969</v>
+        <v>1330.188264938567</v>
       </c>
       <c r="Y29" t="n">
-        <v>399.2803769398969</v>
+        <v>1223.564626582564</v>
       </c>
     </row>
     <row r="30">
@@ -6518,16 +6518,16 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>452.2104727768107</v>
+        <v>425.200598067891</v>
       </c>
       <c r="C30" t="n">
-        <v>290.5068000177653</v>
+        <v>425.200598067891</v>
       </c>
       <c r="D30" t="n">
-        <v>290.5068000177653</v>
+        <v>425.200598067891</v>
       </c>
       <c r="E30" t="n">
-        <v>143.4787900746365</v>
+        <v>278.1725881247622</v>
       </c>
       <c r="F30" t="n">
         <v>143.4787900746365</v>
@@ -6542,25 +6542,25 @@
         <v>29.3022663580799</v>
       </c>
       <c r="J30" t="n">
-        <v>40.995731774646</v>
+        <v>203.2748942577522</v>
       </c>
       <c r="K30" t="n">
-        <v>124.4825217683273</v>
+        <v>286.7616842514335</v>
       </c>
       <c r="L30" t="n">
-        <v>274.3778785132009</v>
+        <v>445.7535691166149</v>
       </c>
       <c r="M30" t="n">
-        <v>465.0261451172138</v>
+        <v>636.4018357206278</v>
       </c>
       <c r="N30" t="n">
-        <v>827.6416912984525</v>
+        <v>843.8030186440712</v>
       </c>
       <c r="O30" t="n">
-        <v>1045.313519202232</v>
+        <v>1015.48099831008</v>
       </c>
       <c r="P30" t="n">
-        <v>1407.929065383471</v>
+        <v>1137.559596067433</v>
       </c>
       <c r="Q30" t="n">
         <v>1448.976027937078</v>
@@ -6575,19 +6575,19 @@
         <v>1151.38998977339</v>
       </c>
       <c r="U30" t="n">
-        <v>932.9759926647466</v>
+        <v>1151.38998977339</v>
       </c>
       <c r="V30" t="n">
-        <v>704.5803701130806</v>
+        <v>1151.38998977339</v>
       </c>
       <c r="W30" t="n">
-        <v>611.6299155580716</v>
+        <v>975.0583553217785</v>
       </c>
       <c r="X30" t="n">
-        <v>611.6299155580716</v>
+        <v>777.1413671995731</v>
       </c>
       <c r="Y30" t="n">
-        <v>611.6299155580716</v>
+        <v>584.6200408491519</v>
       </c>
     </row>
     <row r="31">
@@ -6597,16 +6597,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>333.791935570984</v>
+        <v>29.3022663580799</v>
       </c>
       <c r="C31" t="n">
-        <v>333.791935570984</v>
+        <v>29.3022663580799</v>
       </c>
       <c r="D31" t="n">
-        <v>333.791935570984</v>
+        <v>29.3022663580799</v>
       </c>
       <c r="E31" t="n">
-        <v>181.7829213323028</v>
+        <v>29.3022663580799</v>
       </c>
       <c r="F31" t="n">
         <v>29.3022663580799</v>
@@ -6621,19 +6621,19 @@
         <v>29.3022663580799</v>
       </c>
       <c r="J31" t="n">
-        <v>41.78348751492376</v>
+        <v>41.78348751492373</v>
       </c>
       <c r="K31" t="n">
         <v>192.6266669632719</v>
       </c>
       <c r="L31" t="n">
-        <v>443.259291772169</v>
+        <v>443.2592917721689</v>
       </c>
       <c r="M31" t="n">
-        <v>719.4337003995345</v>
+        <v>719.4337003995344</v>
       </c>
       <c r="N31" t="n">
-        <v>992.2757563391556</v>
+        <v>992.2757563391554</v>
       </c>
       <c r="O31" t="n">
         <v>1233.371002444329</v>
@@ -6645,28 +6645,28 @@
         <v>1465.113317903995</v>
       </c>
       <c r="R31" t="n">
-        <v>1361.885561717371</v>
+        <v>1465.113317903995</v>
       </c>
       <c r="S31" t="n">
-        <v>1361.885561717371</v>
+        <v>1269.34646802634</v>
       </c>
       <c r="T31" t="n">
-        <v>1133.105757712897</v>
+        <v>1040.566664021866</v>
       </c>
       <c r="U31" t="n">
-        <v>845.9716775532295</v>
+        <v>753.4325838621985</v>
       </c>
       <c r="V31" t="n">
-        <v>585.236373111652</v>
+        <v>492.6972794206211</v>
       </c>
       <c r="W31" t="n">
-        <v>333.791935570984</v>
+        <v>206.5408779380202</v>
       </c>
       <c r="X31" t="n">
-        <v>333.791935570984</v>
+        <v>29.3022663580799</v>
       </c>
       <c r="Y31" t="n">
-        <v>333.791935570984</v>
+        <v>29.3022663580799</v>
       </c>
     </row>
     <row r="32">
@@ -6700,25 +6700,25 @@
         <v>29.3022663580799</v>
       </c>
       <c r="J32" t="n">
-        <v>74.60662571848161</v>
+        <v>292.2339694449406</v>
       </c>
       <c r="K32" t="n">
-        <v>183.7311625309415</v>
+        <v>401.3585062574004</v>
       </c>
       <c r="L32" t="n">
-        <v>349.0924814079868</v>
+        <v>566.7198251344457</v>
       </c>
       <c r="M32" t="n">
-        <v>558.8202282971099</v>
+        <v>776.4475720235688</v>
       </c>
       <c r="N32" t="n">
-        <v>844.432561883679</v>
+        <v>993.3176524287683</v>
       </c>
       <c r="O32" t="n">
-        <v>1038.3819293353</v>
+        <v>1187.267019880389</v>
       </c>
       <c r="P32" t="n">
-        <v>1400.997475516539</v>
+        <v>1324.766254625244</v>
       </c>
       <c r="Q32" t="n">
         <v>1465.113317903995</v>
@@ -6730,22 +6730,22 @@
         <v>1330.188264938567</v>
       </c>
       <c r="T32" t="n">
-        <v>1115.876950938342</v>
+        <v>1330.188264938567</v>
       </c>
       <c r="U32" t="n">
-        <v>1115.876950938342</v>
+        <v>1075.486551857929</v>
       </c>
       <c r="V32" t="n">
-        <v>1115.876950938342</v>
+        <v>1075.486551857929</v>
       </c>
       <c r="W32" t="n">
-        <v>1115.876950938342</v>
+        <v>1075.486551857929</v>
       </c>
       <c r="X32" t="n">
-        <v>769.258487521714</v>
+        <v>1075.486551857929</v>
       </c>
       <c r="Y32" t="n">
-        <v>769.258487521714</v>
+        <v>1075.486551857929</v>
       </c>
     </row>
     <row r="33">
@@ -6755,49 +6755,49 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>72.82618687376399</v>
+        <v>156.8026778804933</v>
       </c>
       <c r="C33" t="n">
-        <v>72.82618687376399</v>
+        <v>156.8026778804933</v>
       </c>
       <c r="D33" t="n">
-        <v>72.82618687376399</v>
+        <v>156.8026778804933</v>
       </c>
       <c r="E33" t="n">
-        <v>55.40168164051474</v>
+        <v>156.8026778804933</v>
       </c>
       <c r="F33" t="n">
-        <v>55.40168164051474</v>
+        <v>156.8026778804933</v>
       </c>
       <c r="G33" t="n">
-        <v>55.40168164051474</v>
+        <v>29.3022663580799</v>
       </c>
       <c r="H33" t="n">
-        <v>55.40168164051474</v>
+        <v>29.3022663580799</v>
       </c>
       <c r="I33" t="n">
         <v>29.3022663580799</v>
       </c>
       <c r="J33" t="n">
-        <v>40.995731774646</v>
+        <v>203.2748942577522</v>
       </c>
       <c r="K33" t="n">
-        <v>124.4825217683273</v>
+        <v>565.8904404389909</v>
       </c>
       <c r="L33" t="n">
-        <v>274.3778785132009</v>
+        <v>716.1230384326527</v>
       </c>
       <c r="M33" t="n">
-        <v>465.0261451172138</v>
+        <v>906.7713050366656</v>
       </c>
       <c r="N33" t="n">
-        <v>672.4273280406571</v>
+        <v>1114.172487960109</v>
       </c>
       <c r="O33" t="n">
-        <v>1015.48099831008</v>
+        <v>1285.850467626118</v>
       </c>
       <c r="P33" t="n">
-        <v>1137.559596067433</v>
+        <v>1407.929065383471</v>
       </c>
       <c r="Q33" t="n">
         <v>1448.976027937078</v>
@@ -6806,25 +6806,25 @@
         <v>1465.113317903995</v>
       </c>
       <c r="S33" t="n">
-        <v>1335.125035320109</v>
+        <v>1465.113317903995</v>
       </c>
       <c r="T33" t="n">
-        <v>1151.38998977339</v>
+        <v>1281.378272357277</v>
       </c>
       <c r="U33" t="n">
-        <v>932.9759926647466</v>
+        <v>1062.964275248633</v>
       </c>
       <c r="V33" t="n">
-        <v>704.5803701130806</v>
+        <v>834.5686526969671</v>
       </c>
       <c r="W33" t="n">
-        <v>463.2645013463906</v>
+        <v>593.2527839302771</v>
       </c>
       <c r="X33" t="n">
-        <v>265.3475132241851</v>
+        <v>395.3357958080717</v>
       </c>
       <c r="Y33" t="n">
-        <v>72.82618687376399</v>
+        <v>202.8144694576505</v>
       </c>
     </row>
     <row r="34">
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>29.3022663580799</v>
+        <v>206.5408779380202</v>
       </c>
       <c r="C34" t="n">
-        <v>29.3022663580799</v>
+        <v>206.5408779380202</v>
       </c>
       <c r="D34" t="n">
-        <v>29.3022663580799</v>
+        <v>206.5408779380202</v>
       </c>
       <c r="E34" t="n">
-        <v>29.3022663580799</v>
+        <v>206.5408779380202</v>
       </c>
       <c r="F34" t="n">
-        <v>29.3022663580799</v>
+        <v>179.5209373279732</v>
       </c>
       <c r="G34" t="n">
-        <v>29.3022663580799</v>
+        <v>179.5209373279732</v>
       </c>
       <c r="H34" t="n">
         <v>29.3022663580799</v>
@@ -6858,19 +6858,19 @@
         <v>29.3022663580799</v>
       </c>
       <c r="J34" t="n">
-        <v>41.78348751492368</v>
+        <v>41.78348751492373</v>
       </c>
       <c r="K34" t="n">
-        <v>192.6266669632718</v>
+        <v>192.6266669632719</v>
       </c>
       <c r="L34" t="n">
-        <v>443.259291772169</v>
+        <v>443.2592917721689</v>
       </c>
       <c r="M34" t="n">
-        <v>719.4337003995346</v>
+        <v>719.4337003995344</v>
       </c>
       <c r="N34" t="n">
-        <v>992.2757563391556</v>
+        <v>992.2757563391554</v>
       </c>
       <c r="O34" t="n">
         <v>1233.371002444329</v>
@@ -6882,28 +6882,28 @@
         <v>1465.113317903995</v>
       </c>
       <c r="R34" t="n">
-        <v>1361.885561717371</v>
+        <v>1465.113317903995</v>
       </c>
       <c r="S34" t="n">
-        <v>1166.118711839715</v>
+        <v>1269.34646802634</v>
       </c>
       <c r="T34" t="n">
-        <v>1008.183275492451</v>
+        <v>1040.566664021866</v>
       </c>
       <c r="U34" t="n">
-        <v>721.0491953327835</v>
+        <v>753.4325838621985</v>
       </c>
       <c r="V34" t="n">
-        <v>721.0491953327835</v>
+        <v>492.6972794206211</v>
       </c>
       <c r="W34" t="n">
-        <v>434.8927938501827</v>
+        <v>206.5408779380202</v>
       </c>
       <c r="X34" t="n">
-        <v>434.8927938501827</v>
+        <v>206.5408779380202</v>
       </c>
       <c r="Y34" t="n">
-        <v>212.8576350424597</v>
+        <v>206.5408779380202</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>23.30515279445228</v>
+        <v>906.0760919782504</v>
       </c>
       <c r="C35" t="n">
-        <v>23.30515279445228</v>
+        <v>906.0760919782504</v>
       </c>
       <c r="D35" t="n">
-        <v>23.30515279445228</v>
+        <v>611.8191122503176</v>
       </c>
       <c r="E35" t="n">
-        <v>23.30515279445228</v>
+        <v>317.562132522385</v>
       </c>
       <c r="F35" t="n">
-        <v>23.30515279445228</v>
+        <v>317.562132522385</v>
       </c>
       <c r="G35" t="n">
-        <v>23.30515279445228</v>
+        <v>23.30515279445227</v>
       </c>
       <c r="H35" t="n">
-        <v>23.30515279445228</v>
+        <v>23.30515279445227</v>
       </c>
       <c r="I35" t="n">
-        <v>23.30515279445228</v>
+        <v>23.30515279445227</v>
       </c>
       <c r="J35" t="n">
-        <v>68.60951215485466</v>
+        <v>68.60951215485403</v>
       </c>
       <c r="K35" t="n">
-        <v>177.7340489673147</v>
+        <v>177.7340489673139</v>
       </c>
       <c r="L35" t="n">
-        <v>343.0953678443602</v>
+        <v>343.0953678443593</v>
       </c>
       <c r="M35" t="n">
-        <v>552.823114733483</v>
+        <v>552.8231147334823</v>
       </c>
       <c r="N35" t="n">
-        <v>769.6931951386823</v>
+        <v>769.6931951386816</v>
       </c>
       <c r="O35" t="n">
-        <v>963.6425625903034</v>
+        <v>963.6425625903028</v>
       </c>
       <c r="P35" t="n">
-        <v>1101.141797335158</v>
+        <v>1101.141797335157</v>
       </c>
       <c r="Q35" t="n">
-        <v>1165.257639722614</v>
+        <v>1165.257639722613</v>
       </c>
       <c r="R35" t="n">
-        <v>1165.257639722614</v>
+        <v>1165.257639722613</v>
       </c>
       <c r="S35" t="n">
-        <v>1030.332586757185</v>
+        <v>1165.257639722613</v>
       </c>
       <c r="T35" t="n">
-        <v>816.0212727569608</v>
+        <v>1165.257639722613</v>
       </c>
       <c r="U35" t="n">
-        <v>816.0212727569608</v>
+        <v>1165.257639722613</v>
       </c>
       <c r="V35" t="n">
-        <v>816.0212727569608</v>
+        <v>1165.257639722613</v>
       </c>
       <c r="W35" t="n">
-        <v>816.0212727569608</v>
+        <v>1165.257639722613</v>
       </c>
       <c r="X35" t="n">
-        <v>611.819112250318</v>
+        <v>1165.257639722613</v>
       </c>
       <c r="Y35" t="n">
-        <v>317.5621325223851</v>
+        <v>1165.257639722613</v>
       </c>
     </row>
     <row r="36">
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>111.3822612285741</v>
+        <v>279.2151631734082</v>
       </c>
       <c r="C36" t="n">
-        <v>111.3822612285741</v>
+        <v>279.2151631734082</v>
       </c>
       <c r="D36" t="n">
-        <v>111.3822612285741</v>
+        <v>279.2151631734082</v>
       </c>
       <c r="E36" t="n">
-        <v>111.3822612285741</v>
+        <v>279.2151631734082</v>
       </c>
       <c r="F36" t="n">
-        <v>111.3822612285741</v>
+        <v>150.8055643168657</v>
       </c>
       <c r="G36" t="n">
-        <v>111.3822612285741</v>
+        <v>23.30515279445227</v>
       </c>
       <c r="H36" t="n">
-        <v>23.30515279445228</v>
+        <v>23.30515279445227</v>
       </c>
       <c r="I36" t="n">
-        <v>23.30515279445228</v>
+        <v>23.30515279445227</v>
       </c>
       <c r="J36" t="n">
-        <v>34.99861821101838</v>
+        <v>182.8852135127158</v>
       </c>
       <c r="K36" t="n">
-        <v>118.4854082046997</v>
+        <v>266.3720035063971</v>
       </c>
       <c r="L36" t="n">
-        <v>268.3807649495733</v>
+        <v>416.2673602512707</v>
       </c>
       <c r="M36" t="n">
-        <v>459.0290315535862</v>
+        <v>606.9156268552836</v>
       </c>
       <c r="N36" t="n">
-        <v>666.4302144770295</v>
+        <v>814.316809778727</v>
       </c>
       <c r="O36" t="n">
-        <v>838.108194143038</v>
+        <v>985.9947894447355</v>
       </c>
       <c r="P36" t="n">
         <v>1108.073387202089</v>
       </c>
       <c r="Q36" t="n">
-        <v>1149.120349755697</v>
+        <v>1149.120349755696</v>
       </c>
       <c r="R36" t="n">
-        <v>1165.257639722614</v>
+        <v>1165.257639722613</v>
       </c>
       <c r="S36" t="n">
-        <v>1035.269357138727</v>
+        <v>1165.257639722613</v>
       </c>
       <c r="T36" t="n">
-        <v>851.534311592009</v>
+        <v>1165.257639722613</v>
       </c>
       <c r="U36" t="n">
-        <v>633.1203144833653</v>
+        <v>946.8436426139697</v>
       </c>
       <c r="V36" t="n">
-        <v>404.7246919316992</v>
+        <v>718.4480200623036</v>
       </c>
       <c r="W36" t="n">
-        <v>163.4088231650093</v>
+        <v>477.1321512956137</v>
       </c>
       <c r="X36" t="n">
-        <v>111.3822612285741</v>
+        <v>279.2151631734082</v>
       </c>
       <c r="Y36" t="n">
-        <v>111.3822612285741</v>
+        <v>279.2151631734082</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>192.921122332772</v>
+        <v>191.1953133206804</v>
       </c>
       <c r="C37" t="n">
-        <v>23.30515279445228</v>
+        <v>191.1953133206804</v>
       </c>
       <c r="D37" t="n">
-        <v>23.30515279445228</v>
+        <v>191.1953133206804</v>
       </c>
       <c r="E37" t="n">
-        <v>23.30515279445228</v>
+        <v>191.1953133206804</v>
       </c>
       <c r="F37" t="n">
-        <v>23.30515279445228</v>
+        <v>191.1953133206804</v>
       </c>
       <c r="G37" t="n">
-        <v>23.30515279445228</v>
+        <v>23.30515279445227</v>
       </c>
       <c r="H37" t="n">
-        <v>23.30515279445228</v>
+        <v>23.30515279445227</v>
       </c>
       <c r="I37" t="n">
-        <v>23.30515279445228</v>
+        <v>23.30515279445227</v>
       </c>
       <c r="J37" t="n">
-        <v>35.7863739512961</v>
+        <v>23.30515279445227</v>
       </c>
       <c r="K37" t="n">
-        <v>49.25032611407644</v>
+        <v>101.8759296658706</v>
       </c>
       <c r="L37" t="n">
-        <v>299.8829509229735</v>
+        <v>143.4036135907871</v>
       </c>
       <c r="M37" t="n">
-        <v>576.0573595503389</v>
+        <v>419.5780222181526</v>
       </c>
       <c r="N37" t="n">
-        <v>692.4200781577742</v>
+        <v>692.4200781577736</v>
       </c>
       <c r="O37" t="n">
-        <v>933.5153242629476</v>
+        <v>933.5153242629469</v>
       </c>
       <c r="P37" t="n">
         <v>1118.529781827242</v>
       </c>
       <c r="Q37" t="n">
-        <v>1165.257639722614</v>
+        <v>1165.257639722613</v>
       </c>
       <c r="R37" t="n">
-        <v>1120.112725496053</v>
+        <v>1165.257639722613</v>
       </c>
       <c r="S37" t="n">
-        <v>924.3458756183973</v>
+        <v>1165.257639722613</v>
       </c>
       <c r="T37" t="n">
-        <v>924.3458756183973</v>
+        <v>936.4778357181401</v>
       </c>
       <c r="U37" t="n">
-        <v>637.2117954587293</v>
+        <v>936.4778357181401</v>
       </c>
       <c r="V37" t="n">
-        <v>376.4764910171518</v>
+        <v>828.0383049174073</v>
       </c>
       <c r="W37" t="n">
-        <v>376.4764910171518</v>
+        <v>828.0383049174073</v>
       </c>
       <c r="X37" t="n">
-        <v>376.4764910171518</v>
+        <v>596.7858408127831</v>
       </c>
       <c r="Y37" t="n">
-        <v>376.4764910171518</v>
+        <v>374.7506820050602</v>
       </c>
     </row>
     <row r="38">
@@ -7150,31 +7150,31 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>611.8191122503174</v>
+        <v>906.0760919782504</v>
       </c>
       <c r="C38" t="n">
-        <v>611.8191122503174</v>
+        <v>906.0760919782504</v>
       </c>
       <c r="D38" t="n">
-        <v>611.8191122503174</v>
+        <v>611.8191122503176</v>
       </c>
       <c r="E38" t="n">
-        <v>317.5621325223848</v>
+        <v>611.8191122503176</v>
       </c>
       <c r="F38" t="n">
-        <v>317.5621325223848</v>
+        <v>317.562132522385</v>
       </c>
       <c r="G38" t="n">
-        <v>23.30515279445225</v>
+        <v>23.30515279445227</v>
       </c>
       <c r="H38" t="n">
-        <v>23.30515279445225</v>
+        <v>23.30515279445227</v>
       </c>
       <c r="I38" t="n">
-        <v>23.30515279445225</v>
+        <v>23.30515279445227</v>
       </c>
       <c r="J38" t="n">
-        <v>68.6095121548539</v>
+        <v>68.60951215485392</v>
       </c>
       <c r="K38" t="n">
         <v>177.7340489673138</v>
@@ -7204,22 +7204,22 @@
         <v>1165.257639722613</v>
       </c>
       <c r="T38" t="n">
-        <v>950.9463257223881</v>
+        <v>950.9463257223886</v>
       </c>
       <c r="U38" t="n">
-        <v>696.2446126417508</v>
+        <v>950.9463257223886</v>
       </c>
       <c r="V38" t="n">
-        <v>696.2446126417508</v>
+        <v>950.9463257223886</v>
       </c>
       <c r="W38" t="n">
-        <v>611.8191122503174</v>
+        <v>950.9463257223886</v>
       </c>
       <c r="X38" t="n">
-        <v>611.8191122503174</v>
+        <v>906.0760919782504</v>
       </c>
       <c r="Y38" t="n">
-        <v>611.8191122503174</v>
+        <v>906.0760919782504</v>
       </c>
     </row>
     <row r="39">
@@ -7229,46 +7229,46 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>584.9212480392646</v>
+        <v>238.8826727509875</v>
       </c>
       <c r="C39" t="n">
-        <v>584.9212480392646</v>
+        <v>238.8826727509875</v>
       </c>
       <c r="D39" t="n">
-        <v>446.0826110294767</v>
+        <v>238.8826727509875</v>
       </c>
       <c r="E39" t="n">
-        <v>399.675886083548</v>
+        <v>238.8826727509875</v>
       </c>
       <c r="F39" t="n">
-        <v>264.9820880334223</v>
+        <v>238.8826727509875</v>
       </c>
       <c r="G39" t="n">
-        <v>137.4816765110089</v>
+        <v>111.3822612285741</v>
       </c>
       <c r="H39" t="n">
-        <v>49.4045680768871</v>
+        <v>23.30515279445227</v>
       </c>
       <c r="I39" t="n">
-        <v>23.30515279445225</v>
+        <v>23.30515279445227</v>
       </c>
       <c r="J39" t="n">
-        <v>197.2777806941245</v>
+        <v>34.99861821101834</v>
       </c>
       <c r="K39" t="n">
-        <v>282.5092934733143</v>
+        <v>118.4854082046996</v>
       </c>
       <c r="L39" t="n">
-        <v>432.4046502181878</v>
+        <v>268.3807649495732</v>
       </c>
       <c r="M39" t="n">
-        <v>623.0529168222007</v>
+        <v>459.029031553586</v>
       </c>
       <c r="N39" t="n">
-        <v>830.454099745644</v>
+        <v>666.4302144770294</v>
       </c>
       <c r="O39" t="n">
-        <v>1002.132079411652</v>
+        <v>838.1081941430377</v>
       </c>
       <c r="P39" t="n">
         <v>1124.210677169006</v>
@@ -7283,22 +7283,22 @@
         <v>1165.257639722613</v>
       </c>
       <c r="T39" t="n">
-        <v>1165.257639722613</v>
+        <v>1124.925149300193</v>
       </c>
       <c r="U39" t="n">
-        <v>1165.257639722613</v>
+        <v>906.5111521915489</v>
       </c>
       <c r="V39" t="n">
-        <v>936.8620171709467</v>
+        <v>678.1155296398829</v>
       </c>
       <c r="W39" t="n">
-        <v>936.8620171709467</v>
+        <v>436.7996608731929</v>
       </c>
       <c r="X39" t="n">
-        <v>936.8620171709467</v>
+        <v>238.8826727509875</v>
       </c>
       <c r="Y39" t="n">
-        <v>744.3406908205255</v>
+        <v>238.8826727509875</v>
       </c>
     </row>
     <row r="40">
@@ -7308,49 +7308,49 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>23.30515279445225</v>
+        <v>646.4948917014922</v>
       </c>
       <c r="C40" t="n">
-        <v>23.30515279445225</v>
+        <v>646.4948917014922</v>
       </c>
       <c r="D40" t="n">
-        <v>23.30515279445225</v>
+        <v>493.4229985292549</v>
       </c>
       <c r="E40" t="n">
-        <v>23.30515279445225</v>
+        <v>341.4139842905737</v>
       </c>
       <c r="F40" t="n">
-        <v>23.30515279445225</v>
+        <v>341.4139842905737</v>
       </c>
       <c r="G40" t="n">
-        <v>23.30515279445225</v>
+        <v>173.5238237643456</v>
       </c>
       <c r="H40" t="n">
-        <v>23.30515279445225</v>
+        <v>23.30515279445227</v>
       </c>
       <c r="I40" t="n">
-        <v>23.30515279445225</v>
+        <v>23.30515279445227</v>
       </c>
       <c r="J40" t="n">
-        <v>35.78637395129606</v>
+        <v>35.78637395129607</v>
       </c>
       <c r="K40" t="n">
-        <v>102.6056133947804</v>
+        <v>49.2503261140764</v>
       </c>
       <c r="L40" t="n">
-        <v>353.2382382036774</v>
+        <v>299.8829509229734</v>
       </c>
       <c r="M40" t="n">
-        <v>629.4126468310428</v>
+        <v>576.0573595503388</v>
       </c>
       <c r="N40" t="n">
-        <v>902.2547027706638</v>
+        <v>848.8994154899597</v>
       </c>
       <c r="O40" t="n">
-        <v>933.5153242629465</v>
+        <v>1089.994661595133</v>
       </c>
       <c r="P40" t="n">
-        <v>1118.529781827241</v>
+        <v>1165.257639722613</v>
       </c>
       <c r="Q40" t="n">
         <v>1165.257639722613</v>
@@ -7359,25 +7359,25 @@
         <v>1165.257639722613</v>
       </c>
       <c r="S40" t="n">
-        <v>1165.257639722613</v>
+        <v>969.4907898449578</v>
       </c>
       <c r="T40" t="n">
-        <v>936.4778357181397</v>
+        <v>877.7473558061164</v>
       </c>
       <c r="U40" t="n">
-        <v>936.4778357181397</v>
+        <v>877.7473558061164</v>
       </c>
       <c r="V40" t="n">
-        <v>715.0520817691558</v>
+        <v>877.7473558061164</v>
       </c>
       <c r="W40" t="n">
-        <v>428.895680286555</v>
+        <v>877.7473558061164</v>
       </c>
       <c r="X40" t="n">
-        <v>428.895680286555</v>
+        <v>646.4948917014922</v>
       </c>
       <c r="Y40" t="n">
-        <v>206.8605214788321</v>
+        <v>646.4948917014922</v>
       </c>
     </row>
     <row r="41">
@@ -7390,13 +7390,13 @@
         <v>317.5621325223848</v>
       </c>
       <c r="C41" t="n">
-        <v>317.5621325223848</v>
+        <v>23.30515279445225</v>
       </c>
       <c r="D41" t="n">
-        <v>317.5621325223848</v>
+        <v>23.30515279445225</v>
       </c>
       <c r="E41" t="n">
-        <v>317.5621325223848</v>
+        <v>23.30515279445225</v>
       </c>
       <c r="F41" t="n">
         <v>23.30515279445225</v>
@@ -7411,7 +7411,7 @@
         <v>23.30515279445225</v>
       </c>
       <c r="J41" t="n">
-        <v>68.6095121548539</v>
+        <v>68.60951215485386</v>
       </c>
       <c r="K41" t="n">
         <v>177.7340489673138</v>
@@ -7420,13 +7420,13 @@
         <v>343.095367844359</v>
       </c>
       <c r="M41" t="n">
-        <v>552.8231147334817</v>
+        <v>552.8231147334818</v>
       </c>
       <c r="N41" t="n">
-        <v>769.6931951386812</v>
+        <v>769.6931951386815</v>
       </c>
       <c r="O41" t="n">
-        <v>963.6425625903022</v>
+        <v>963.6425625903023</v>
       </c>
       <c r="P41" t="n">
         <v>1101.141797335157</v>
@@ -7441,22 +7441,22 @@
         <v>1165.257639722613</v>
       </c>
       <c r="T41" t="n">
-        <v>1165.257639722613</v>
+        <v>1160.777805058887</v>
       </c>
       <c r="U41" t="n">
-        <v>1165.257639722613</v>
+        <v>906.0760919782499</v>
       </c>
       <c r="V41" t="n">
-        <v>1165.257639722613</v>
+        <v>611.8191122503174</v>
       </c>
       <c r="W41" t="n">
-        <v>871.0006599946803</v>
+        <v>611.8191122503174</v>
       </c>
       <c r="X41" t="n">
-        <v>576.7436802667478</v>
+        <v>611.8191122503174</v>
       </c>
       <c r="Y41" t="n">
-        <v>576.7436802667478</v>
+        <v>611.8191122503174</v>
       </c>
     </row>
     <row r="42">
@@ -7490,28 +7490,28 @@
         <v>23.30515279445225</v>
       </c>
       <c r="J42" t="n">
-        <v>34.99861821101833</v>
+        <v>182.8852135127158</v>
       </c>
       <c r="K42" t="n">
-        <v>118.4854082046996</v>
+        <v>266.372003506397</v>
       </c>
       <c r="L42" t="n">
-        <v>315.6813640528495</v>
+        <v>416.2673602512706</v>
       </c>
       <c r="M42" t="n">
-        <v>506.3296306568624</v>
+        <v>606.9156268552834</v>
       </c>
       <c r="N42" t="n">
-        <v>713.7308135803057</v>
+        <v>814.3168097787268</v>
       </c>
       <c r="O42" t="n">
-        <v>1002.132079411652</v>
+        <v>985.9947894447351</v>
       </c>
       <c r="P42" t="n">
-        <v>1124.210677169006</v>
+        <v>1108.073387202088</v>
       </c>
       <c r="Q42" t="n">
-        <v>1165.257639722613</v>
+        <v>1149.120349755696</v>
       </c>
       <c r="R42" t="n">
         <v>1165.257639722613</v>
@@ -7523,16 +7523,16 @@
         <v>851.5343115920078</v>
       </c>
       <c r="U42" t="n">
-        <v>633.1203144833642</v>
+        <v>851.5343115920078</v>
       </c>
       <c r="V42" t="n">
-        <v>630.2949152876752</v>
+        <v>851.5343115920078</v>
       </c>
       <c r="W42" t="n">
-        <v>630.2949152876752</v>
+        <v>851.5343115920078</v>
       </c>
       <c r="X42" t="n">
-        <v>630.2949152876752</v>
+        <v>822.8162416380964</v>
       </c>
       <c r="Y42" t="n">
         <v>630.2949152876752</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>648.2207007135838</v>
+        <v>23.30515279445225</v>
       </c>
       <c r="C43" t="n">
-        <v>478.6047311752641</v>
+        <v>23.30515279445225</v>
       </c>
       <c r="D43" t="n">
-        <v>325.5328380030268</v>
+        <v>23.30515279445225</v>
       </c>
       <c r="E43" t="n">
-        <v>173.5238237643456</v>
+        <v>23.30515279445225</v>
       </c>
       <c r="F43" t="n">
-        <v>173.5238237643456</v>
+        <v>23.30515279445225</v>
       </c>
       <c r="G43" t="n">
-        <v>173.5238237643456</v>
+        <v>23.30515279445225</v>
       </c>
       <c r="H43" t="n">
         <v>23.30515279445225</v>
@@ -7569,19 +7569,19 @@
         <v>23.30515279445225</v>
       </c>
       <c r="J43" t="n">
-        <v>35.78637395129606</v>
+        <v>23.30515279445225</v>
       </c>
       <c r="K43" t="n">
-        <v>122.5129223723463</v>
+        <v>36.76910495723259</v>
       </c>
       <c r="L43" t="n">
-        <v>373.1455471812433</v>
+        <v>287.4017297661296</v>
       </c>
       <c r="M43" t="n">
-        <v>419.5780222181522</v>
+        <v>563.5761383934951</v>
       </c>
       <c r="N43" t="n">
-        <v>692.4200781577731</v>
+        <v>836.4181943331159</v>
       </c>
       <c r="O43" t="n">
         <v>933.5153242629465</v>
@@ -7596,25 +7596,25 @@
         <v>1165.257639722613</v>
       </c>
       <c r="S43" t="n">
-        <v>969.4907898449574</v>
+        <v>1165.257639722613</v>
       </c>
       <c r="T43" t="n">
-        <v>969.4907898449574</v>
+        <v>1040.886307562678</v>
       </c>
       <c r="U43" t="n">
-        <v>969.4907898449574</v>
+        <v>753.7522274030104</v>
       </c>
       <c r="V43" t="n">
-        <v>831.7760693979636</v>
+        <v>493.016922961433</v>
       </c>
       <c r="W43" t="n">
-        <v>831.7760693979636</v>
+        <v>206.8605214788321</v>
       </c>
       <c r="X43" t="n">
-        <v>831.7760693979636</v>
+        <v>206.8605214788321</v>
       </c>
       <c r="Y43" t="n">
-        <v>831.7760693979636</v>
+        <v>206.8605214788321</v>
       </c>
     </row>
     <row r="44">
@@ -7624,19 +7624,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>611.8191122503174</v>
+        <v>906.0760919782499</v>
       </c>
       <c r="C44" t="n">
         <v>611.8191122503174</v>
       </c>
       <c r="D44" t="n">
-        <v>611.8191122503174</v>
+        <v>317.5621325223848</v>
       </c>
       <c r="E44" t="n">
-        <v>611.8191122503174</v>
+        <v>317.5621325223848</v>
       </c>
       <c r="F44" t="n">
-        <v>317.5621325223848</v>
+        <v>23.30515279445225</v>
       </c>
       <c r="G44" t="n">
         <v>23.30515279445225</v>
@@ -7648,7 +7648,7 @@
         <v>23.30515279445225</v>
       </c>
       <c r="J44" t="n">
-        <v>68.60951215485386</v>
+        <v>68.6095121548539</v>
       </c>
       <c r="K44" t="n">
         <v>177.7340489673138</v>
@@ -7657,13 +7657,13 @@
         <v>343.095367844359</v>
       </c>
       <c r="M44" t="n">
-        <v>552.8231147334818</v>
+        <v>552.8231147334819</v>
       </c>
       <c r="N44" t="n">
-        <v>769.6931951386815</v>
+        <v>769.6931951386814</v>
       </c>
       <c r="O44" t="n">
-        <v>963.6425625903023</v>
+        <v>963.6425625903024</v>
       </c>
       <c r="P44" t="n">
         <v>1101.141797335157</v>
@@ -7678,22 +7678,22 @@
         <v>1165.257639722613</v>
       </c>
       <c r="T44" t="n">
-        <v>1165.257639722613</v>
+        <v>950.9463257223881</v>
       </c>
       <c r="U44" t="n">
-        <v>1165.257639722613</v>
+        <v>950.9463257223881</v>
       </c>
       <c r="V44" t="n">
-        <v>1165.257639722613</v>
+        <v>950.9463257223881</v>
       </c>
       <c r="W44" t="n">
-        <v>871.0006599946803</v>
+        <v>950.9463257223881</v>
       </c>
       <c r="X44" t="n">
-        <v>871.0006599946803</v>
+        <v>950.9463257223881</v>
       </c>
       <c r="Y44" t="n">
-        <v>871.0006599946803</v>
+        <v>950.9463257223881</v>
       </c>
     </row>
     <row r="45">
@@ -7703,22 +7703,22 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>682.3081535032873</v>
+        <v>185.0088255534976</v>
       </c>
       <c r="C45" t="n">
-        <v>520.604480744242</v>
+        <v>23.30515279445225</v>
       </c>
       <c r="D45" t="n">
-        <v>520.604480744242</v>
+        <v>23.30515279445225</v>
       </c>
       <c r="E45" t="n">
-        <v>373.5764708011131</v>
+        <v>23.30515279445225</v>
       </c>
       <c r="F45" t="n">
-        <v>238.8826727509875</v>
+        <v>23.30515279445225</v>
       </c>
       <c r="G45" t="n">
-        <v>111.3822612285741</v>
+        <v>23.30515279445225</v>
       </c>
       <c r="H45" t="n">
         <v>23.30515279445225</v>
@@ -7733,46 +7733,46 @@
         <v>118.4854082046996</v>
       </c>
       <c r="L45" t="n">
-        <v>406.8866740360463</v>
+        <v>268.3807649495732</v>
       </c>
       <c r="M45" t="n">
-        <v>597.5349406400592</v>
+        <v>459.029031553586</v>
       </c>
       <c r="N45" t="n">
-        <v>804.9361235635025</v>
+        <v>666.4302144770294</v>
       </c>
       <c r="O45" t="n">
-        <v>985.9947894447351</v>
+        <v>838.1081941430377</v>
       </c>
       <c r="P45" t="n">
-        <v>1108.073387202088</v>
+        <v>960.1867919003909</v>
       </c>
       <c r="Q45" t="n">
-        <v>1149.120349755696</v>
+        <v>1165.257639722613</v>
       </c>
       <c r="R45" t="n">
         <v>1165.257639722613</v>
       </c>
       <c r="S45" t="n">
-        <v>1035.269357138726</v>
+        <v>1165.257639722613</v>
       </c>
       <c r="T45" t="n">
-        <v>1035.269357138726</v>
+        <v>1022.256759686434</v>
       </c>
       <c r="U45" t="n">
-        <v>1035.269357138726</v>
+        <v>803.8427625777903</v>
       </c>
       <c r="V45" t="n">
-        <v>806.8737345870602</v>
+        <v>575.4471400261242</v>
       </c>
       <c r="W45" t="n">
-        <v>806.8737345870602</v>
+        <v>575.4471400261242</v>
       </c>
       <c r="X45" t="n">
-        <v>806.8737345870602</v>
+        <v>377.5301519039187</v>
       </c>
       <c r="Y45" t="n">
-        <v>682.3081535032873</v>
+        <v>185.0088255534976</v>
       </c>
     </row>
     <row r="46">
@@ -7809,22 +7809,22 @@
         <v>23.30515279445225</v>
       </c>
       <c r="K46" t="n">
-        <v>36.76910495723259</v>
+        <v>113.2522936624322</v>
       </c>
       <c r="L46" t="n">
-        <v>287.4017297661296</v>
+        <v>363.8849184713292</v>
       </c>
       <c r="M46" t="n">
-        <v>563.5761383934951</v>
+        <v>640.0593270986947</v>
       </c>
       <c r="N46" t="n">
-        <v>692.4200781577731</v>
+        <v>912.9013830383155</v>
       </c>
       <c r="O46" t="n">
-        <v>933.5153242629465</v>
+        <v>1153.996629143489</v>
       </c>
       <c r="P46" t="n">
-        <v>1118.529781827241</v>
+        <v>1165.257639722613</v>
       </c>
       <c r="Q46" t="n">
         <v>1165.257639722613</v>
@@ -7833,19 +7833,19 @@
         <v>1062.029883535988</v>
       </c>
       <c r="S46" t="n">
-        <v>915.6675235850105</v>
+        <v>912.2171848077921</v>
       </c>
       <c r="T46" t="n">
-        <v>915.6675235850105</v>
+        <v>683.437380803319</v>
       </c>
       <c r="U46" t="n">
-        <v>628.5334434253425</v>
+        <v>683.437380803319</v>
       </c>
       <c r="V46" t="n">
-        <v>367.7981389837651</v>
+        <v>422.7020763617417</v>
       </c>
       <c r="W46" t="n">
-        <v>367.7981389837651</v>
+        <v>136.5456748791408</v>
       </c>
       <c r="X46" t="n">
         <v>136.5456748791408</v>
@@ -8783,16 +8783,16 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>117.9023092579176</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>165.6806921905197</v>
+        <v>31.47809003672641</v>
       </c>
       <c r="R12" t="n">
-        <v>42.87787785884103</v>
+        <v>59.17817075471706</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8850,13 +8850,13 @@
         <v>43.72711371954033</v>
       </c>
       <c r="K13" t="n">
-        <v>138.7668962480483</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>211.2171120040207</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>232.0625591822793</v>
       </c>
       <c r="N13" t="n">
         <v>223.3630318978003</v>
@@ -8865,10 +8865,10 @@
         <v>211.9541662756472</v>
       </c>
       <c r="P13" t="n">
-        <v>110.744258543306</v>
+        <v>64.64845206904646</v>
       </c>
       <c r="Q13" t="n">
-        <v>84.9458458910769</v>
+        <v>37.74598943110574</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -8950,7 +8950,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>32.42354994280549</v>
+        <v>32.42354994280547</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9011,25 +9011,25 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>139.9049586732052</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>98.74040325993323</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>66.94028893058677</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>25.77573351731476</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>42.87787785884105</v>
+        <v>42.87787785884103</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9084,7 +9084,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>43.72711371954033</v>
+        <v>31.11981962171829</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -9093,7 +9093,7 @@
         <v>211.2171120040207</v>
       </c>
       <c r="M16" t="n">
-        <v>74.00262248310108</v>
+        <v>232.0625591822793</v>
       </c>
       <c r="N16" t="n">
         <v>223.3630318978003</v>
@@ -9102,10 +9102,10 @@
         <v>211.9541662756472</v>
       </c>
       <c r="P16" t="n">
-        <v>175.5085323082534</v>
+        <v>77.25574616686841</v>
       </c>
       <c r="Q16" t="n">
-        <v>84.9458458910769</v>
+        <v>37.74598943110574</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -9245,7 +9245,7 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>165.6806921905199</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9260,7 +9260,7 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>165.68069219052</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -9321,10 +9321,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>31.11981962171829</v>
+        <v>43.72711371954033</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>138.7668962480483</v>
       </c>
       <c r="L19" t="n">
         <v>211.2171120040207</v>
@@ -9333,10 +9333,10 @@
         <v>232.0625591822793</v>
       </c>
       <c r="N19" t="n">
-        <v>77.91038929644428</v>
+        <v>138.4903652262211</v>
       </c>
       <c r="O19" t="n">
-        <v>211.9541662756472</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
         <v>175.5085323082534</v>
@@ -9424,7 +9424,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>32.42354994280549</v>
+        <v>32.42354994280547</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9479,7 +9479,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -9497,13 +9497,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>165.6806921905201</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>1.762346247988027</v>
       </c>
       <c r="R21" t="n">
-        <v>42.87787785884105</v>
+        <v>42.87787785884103</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9558,28 +9558,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>31.11981962171831</v>
+        <v>31.11981962171829</v>
       </c>
       <c r="K22" t="n">
-        <v>138.7668962480483</v>
+        <v>113.7013801342621</v>
       </c>
       <c r="L22" t="n">
         <v>211.2171120040207</v>
       </c>
       <c r="M22" t="n">
-        <v>171.2060522306751</v>
+        <v>232.0625591822793</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>223.3630318978003</v>
       </c>
       <c r="O22" t="n">
-        <v>211.9541662756472</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
         <v>175.5085323082534</v>
       </c>
       <c r="Q22" t="n">
-        <v>84.9458458910769</v>
+        <v>37.74598943110574</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -9637,7 +9637,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>20.81734508935033</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -9652,13 +9652,13 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>170.3698775046644</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>126.4569554425621</v>
+        <v>276.0094878578761</v>
       </c>
       <c r="R23" t="n">
         <v>32.42354994280547</v>
@@ -9716,10 +9716,10 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>281.9482385732904</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9728,19 +9728,19 @@
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>156.7821851088843</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>192.8662288032631</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>96.55881832972337</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>16.64094062192458</v>
       </c>
       <c r="R24" t="n">
-        <v>59.17817075471706</v>
+        <v>42.87787785884103</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9874,10 +9874,10 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>219.8255997236959</v>
       </c>
       <c r="K26" t="n">
-        <v>20.81734508935031</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
@@ -9895,7 +9895,7 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>276.0094878578761</v>
+        <v>77.00123322353053</v>
       </c>
       <c r="R26" t="n">
         <v>32.42354994280547</v>
@@ -9953,10 +9953,10 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>281.9482385732904</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9965,19 +9965,19 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>156.7821851088843</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>62.75872545928098</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>242.9666145695814</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>0.3406477260485659</v>
       </c>
       <c r="R27" t="n">
-        <v>42.87787785884103</v>
+        <v>59.17817075471706</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10111,10 +10111,10 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>219.8255997236959</v>
       </c>
       <c r="K29" t="n">
-        <v>256.0515246149282</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
@@ -10129,10 +10129,10 @@
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>40.77530833229815</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>77.00123322353053</v>
       </c>
       <c r="R29" t="n">
         <v>32.42354994280547</v>
@@ -10190,28 +10190,28 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>9.188412242735183</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>156.7821851088843</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>46.45843256340498</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>242.9666145695814</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R30" t="n">
         <v>59.17817075471706</v>
@@ -10348,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>219.8255997236959</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -10360,16 +10360,16 @@
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>69.43661937512081</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>227.3902135721054</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>77.00123322353053</v>
       </c>
       <c r="R32" t="n">
         <v>32.42354994280547</v>
@@ -10427,13 +10427,13 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>281.9482385732904</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>0.3406477260486724</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -10442,13 +10442,13 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>173.1067581852668</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>273.1004740566038</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>59.17817075471706</v>
@@ -10664,7 +10664,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>149.3803992946438</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -10682,7 +10682,7 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>149.3803992946447</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -10743,19 +10743,19 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>43.72711371954033</v>
+        <v>31.11981962171829</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>65.76446940266464</v>
       </c>
       <c r="L37" t="n">
-        <v>211.2171120040207</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
         <v>232.0625591822793</v>
       </c>
       <c r="N37" t="n">
-        <v>65.3030951986229</v>
+        <v>223.3630318978003</v>
       </c>
       <c r="O37" t="n">
         <v>211.9541662756472</v>
@@ -10901,10 +10901,10 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J39" t="n">
-        <v>163.9183459425315</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>1.762346247988376</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10919,7 +10919,7 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>165.6806921905203</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -10983,7 +10983,7 @@
         <v>43.72711371954033</v>
       </c>
       <c r="K40" t="n">
-        <v>53.89422957646865</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
         <v>211.2171120040207</v>
@@ -10995,13 +10995,13 @@
         <v>223.3630318978003</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>211.9541662756472</v>
       </c>
       <c r="P40" t="n">
-        <v>175.5085323082534</v>
+        <v>64.64845206904671</v>
       </c>
       <c r="Q40" t="n">
-        <v>84.9458458910769</v>
+        <v>37.74598943110577</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -11138,13 +11138,13 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>149.3803992946438</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>47.77838293260237</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -11153,7 +11153,7 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>117.9023092579175</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -11162,7 +11162,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>42.87787785884105</v>
+        <v>59.17817075471706</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11217,22 +11217,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>43.72711371954033</v>
+        <v>31.11981962171831</v>
       </c>
       <c r="K43" t="n">
-        <v>74.00262248310086</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
         <v>211.2171120040207</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>232.0625591822793</v>
       </c>
       <c r="N43" t="n">
         <v>223.3630318978003</v>
       </c>
       <c r="O43" t="n">
-        <v>211.9541662756472</v>
+        <v>66.50152367429078</v>
       </c>
       <c r="P43" t="n">
         <v>175.5085323082534</v>
@@ -11381,7 +11381,7 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>139.9049586732052</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -11390,16 +11390,16 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>9.475440621438679</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>165.6806921905198</v>
       </c>
       <c r="R45" t="n">
-        <v>59.17817075471706</v>
+        <v>42.87787785884105</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -11457,7 +11457,7 @@
         <v>31.11981962171831</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>77.25574616686831</v>
       </c>
       <c r="L46" t="n">
         <v>211.2171120040207</v>
@@ -11466,16 +11466,16 @@
         <v>232.0625591822793</v>
       </c>
       <c r="N46" t="n">
-        <v>77.91038929644385</v>
+        <v>223.3630318978003</v>
       </c>
       <c r="O46" t="n">
         <v>211.9541662756472</v>
       </c>
       <c r="P46" t="n">
-        <v>175.5085323082534</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>84.9458458910769</v>
+        <v>37.74598943110577</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -23257,13 +23257,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>98.78869419218569</v>
+        <v>98.78869419218563</v>
       </c>
       <c r="C11" t="n">
         <v>378.1144210805207</v>
       </c>
       <c r="D11" t="n">
-        <v>77.7813151943954</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E11" t="n">
         <v>390.8378626949542</v>
@@ -23272,13 +23272,13 @@
         <v>410.0096787829314</v>
       </c>
       <c r="G11" t="n">
-        <v>236.5656254412405</v>
+        <v>405.2355731968289</v>
       </c>
       <c r="H11" t="n">
-        <v>306.2214886528944</v>
+        <v>14.90707872224107</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>83.48474819424257</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23314,16 +23314,16 @@
         <v>212.1682008602224</v>
       </c>
       <c r="U11" t="n">
-        <v>252.154695949831</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>333.6094813630181</v>
       </c>
       <c r="W11" t="n">
-        <v>67.59517091032171</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X11" t="n">
-        <v>378.2098390737216</v>
+        <v>86.89542914306827</v>
       </c>
       <c r="Y11" t="n">
         <v>389.6064368699203</v>
@@ -23339,25 +23339,25 @@
         <v>157.8252483534483</v>
       </c>
       <c r="C12" t="n">
-        <v>160.0866360314548</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
         <v>137.45025063969</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>145.5577298436975</v>
       </c>
       <c r="F12" t="n">
         <v>133.3468600696244</v>
       </c>
       <c r="G12" t="n">
-        <v>103.1113325778404</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>87.19633734978058</v>
+        <v>57.81075037142018</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>25.83842112961049</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23387,22 +23387,22 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>128.6883997580476</v>
       </c>
       <c r="T12" t="n">
         <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>216.2298571375572</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>226.1116663261494</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>238.9027100790231</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>195.9378182409833</v>
       </c>
       <c r="Y12" t="n">
         <v>0</v>
@@ -23418,7 +23418,7 @@
         <v>181.719814997536</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.9198098429365</v>
       </c>
       <c r="D13" t="n">
         <v>151.5411742405149</v>
@@ -23436,7 +23436,7 @@
         <v>148.7164842601944</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>112.1081168638416</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23469,13 +23469,13 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>226.4920059644283</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>284.2627393580713</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>206.7372207361184</v>
+        <v>217.6492321321942</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>228.939939463578</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>219.8148072196457</v>
       </c>
     </row>
     <row r="14">
@@ -23497,25 +23497,25 @@
         <v>390.1031041228389</v>
       </c>
       <c r="C14" t="n">
-        <v>86.80001114986743</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D14" t="n">
-        <v>77.7813151943954</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E14" t="n">
         <v>390.8378626949542</v>
       </c>
       <c r="F14" t="n">
-        <v>118.6952688522781</v>
+        <v>410.0096787829314</v>
       </c>
       <c r="G14" t="n">
         <v>409.6706095139172</v>
       </c>
       <c r="H14" t="n">
-        <v>306.2214886528944</v>
+        <v>14.90707872224107</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>83.48474819424257</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23545,19 +23545,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>133.5758024357742</v>
       </c>
       <c r="T14" t="n">
-        <v>212.1682008602225</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>212.6255143129285</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>333.6094813630181</v>
+        <v>42.29507143236475</v>
       </c>
       <c r="W14" t="n">
-        <v>358.909580840975</v>
+        <v>275.3283354534557</v>
       </c>
       <c r="X14" t="n">
         <v>378.2098390737216</v>
@@ -23582,19 +23582,19 @@
         <v>137.45025063969</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>145.5577298436975</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>133.3468600696244</v>
       </c>
       <c r="G15" t="n">
-        <v>126.2254074071893</v>
+        <v>63.47061021893983</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>87.19633734978058</v>
       </c>
       <c r="I15" t="n">
-        <v>25.8384211296105</v>
+        <v>25.83842112961049</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23624,25 +23624,25 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>128.6883997580476</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>181.8976950912513</v>
       </c>
       <c r="U15" t="n">
-        <v>1.286627270102457</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>226.1116663261494</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
         <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>195.9378182409833</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>190.5961130869169</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -23661,10 +23661,10 @@
         <v>151.5411742405149</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G16" t="n">
         <v>166.2112589209658</v>
@@ -23673,7 +23673,7 @@
         <v>148.7164842601944</v>
       </c>
       <c r="I16" t="n">
-        <v>92.2272661510241</v>
+        <v>112.1081168638416</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,19 +23700,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>102.1954786247584</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>193.8091813788789</v>
       </c>
       <c r="T16" t="n">
-        <v>226.4920059644283</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>258.1279513971616</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>283.2948374677749</v>
@@ -23721,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>219.8148072196457</v>
+        <v>87.10448134400562</v>
       </c>
     </row>
     <row r="17">
@@ -23740,10 +23740,10 @@
         <v>369.0957251250487</v>
       </c>
       <c r="E17" t="n">
-        <v>390.8378626949542</v>
+        <v>99.52345276430088</v>
       </c>
       <c r="F17" t="n">
-        <v>410.0096787829314</v>
+        <v>118.695268852278</v>
       </c>
       <c r="G17" t="n">
         <v>118.3561995832639</v>
@@ -23785,22 +23785,22 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>212.1682008602224</v>
+        <v>89.15427102907735</v>
       </c>
       <c r="U17" t="n">
         <v>252.154695949831</v>
       </c>
       <c r="V17" t="n">
-        <v>42.29507143236475</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W17" t="n">
         <v>358.909580840975</v>
       </c>
       <c r="X17" t="n">
-        <v>255.1959092425765</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y17" t="n">
-        <v>98.29202693926703</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="18">
@@ -23810,10 +23810,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>157.8252483534483</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>160.0866360314548</v>
       </c>
       <c r="D18" t="n">
         <v>137.45025063969</v>
@@ -23822,7 +23822,7 @@
         <v>145.5577298436975</v>
       </c>
       <c r="F18" t="n">
-        <v>133.3468600696244</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
         <v>126.2254074071893</v>
@@ -23831,7 +23831,7 @@
         <v>87.19633734978058</v>
       </c>
       <c r="I18" t="n">
-        <v>25.83842112961049</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23870,13 +23870,13 @@
         <v>216.2298571375572</v>
       </c>
       <c r="V18" t="n">
-        <v>110.6106148293724</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>238.9027100790231</v>
+        <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>190.7867217227272</v>
       </c>
       <c r="Y18" t="n">
         <v>0</v>
@@ -23895,10 +23895,10 @@
         <v>167.9198098429365</v>
       </c>
       <c r="D19" t="n">
-        <v>21.44763676650854</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>150.4889240962943</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>150.9558484244806</v>
@@ -23907,7 +23907,7 @@
         <v>166.2112589209658</v>
       </c>
       <c r="H19" t="n">
-        <v>148.7164842601944</v>
+        <v>24.64838511936013</v>
       </c>
       <c r="I19" t="n">
         <v>112.1081168638416</v>
@@ -23937,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>102.1954786247584</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>193.8091813788789</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23968,19 +23968,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>390.1031041228389</v>
+        <v>98.78869419218569</v>
       </c>
       <c r="C20" t="n">
-        <v>86.80001114986743</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D20" t="n">
         <v>369.0957251250487</v>
       </c>
       <c r="E20" t="n">
-        <v>390.8378626949542</v>
+        <v>217.7328786222776</v>
       </c>
       <c r="F20" t="n">
-        <v>410.0096787829314</v>
+        <v>118.6952688522781</v>
       </c>
       <c r="G20" t="n">
         <v>409.6706095139172</v>
@@ -23989,7 +23989,7 @@
         <v>306.2214886528944</v>
       </c>
       <c r="I20" t="n">
-        <v>83.4847481942426</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24019,13 +24019,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>133.5758024357742</v>
       </c>
       <c r="T20" t="n">
-        <v>49.99455704825505</v>
+        <v>212.1682008602224</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>252.154695949831</v>
       </c>
       <c r="V20" t="n">
         <v>333.6094813630181</v>
@@ -24047,7 +24047,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>157.8252483534483</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
@@ -24062,13 +24062,13 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>126.2254074071893</v>
       </c>
       <c r="H21" t="n">
-        <v>87.19633734978059</v>
+        <v>87.19633734978058</v>
       </c>
       <c r="I21" t="n">
-        <v>25.8384211296105</v>
+        <v>25.83842112961049</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24101,22 +24101,22 @@
         <v>128.6883997580476</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>181.8976950912513</v>
       </c>
       <c r="U21" t="n">
-        <v>216.2298571375572</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>156.4542194706203</v>
+        <v>97.33183884320567</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>190.5961130869169</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -24141,13 +24141,13 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G22" t="n">
-        <v>166.2112589209658</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>148.7164842601944</v>
       </c>
       <c r="I22" t="n">
-        <v>112.1081168638417</v>
+        <v>112.1081168638416</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,19 +24174,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>102.1954786247584</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>193.8091813788789</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>226.4920059644283</v>
       </c>
       <c r="U22" t="n">
-        <v>284.2627393580713</v>
+        <v>208.5435492980793</v>
       </c>
       <c r="V22" t="n">
-        <v>60.75140976746218</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>283.2948374677749</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>219.8148072196457</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24211,13 +24211,13 @@
         <v>378.1144210805207</v>
       </c>
       <c r="D23" t="n">
-        <v>2.817395649049843</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E23" t="n">
         <v>390.8378626949542</v>
       </c>
       <c r="F23" t="n">
-        <v>213.5987799812219</v>
+        <v>43.73134930693254</v>
       </c>
       <c r="G23" t="n">
         <v>409.6706095139172</v>
@@ -24256,13 +24256,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>133.5758024357742</v>
       </c>
       <c r="T23" t="n">
-        <v>212.1682008602224</v>
+        <v>134.3361955725699</v>
       </c>
       <c r="U23" t="n">
-        <v>252.154695949831</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>333.6094813630181</v>
@@ -24271,10 +24271,10 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>378.2098390737216</v>
+        <v>11.93150959772277</v>
       </c>
       <c r="Y23" t="n">
-        <v>23.32810739392153</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="24">
@@ -24284,16 +24284,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>45.02415620912693</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>160.0866360314548</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>137.45025063969</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>145.5577298436975</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
         <v>133.3468600696244</v>
@@ -24305,7 +24305,7 @@
         <v>87.19633734978058</v>
       </c>
       <c r="I24" t="n">
-        <v>25.83842112961049</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -24335,7 +24335,7 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>54.28452260247373</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
@@ -24344,16 +24344,16 @@
         <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>226.1116663261494</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>238.9027100790231</v>
       </c>
       <c r="X24" t="n">
-        <v>195.9378182409833</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>190.5961130869169</v>
       </c>
     </row>
     <row r="25">
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>181.719814997536</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -24378,13 +24378,13 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.2112589209658</v>
       </c>
       <c r="H25" t="n">
-        <v>148.7164842601944</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>60.48558938700275</v>
+        <v>112.1081168638416</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>86.46772489901599</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24420,10 +24420,10 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>284.2627393580713</v>
       </c>
       <c r="V25" t="n">
-        <v>258.1279513971616</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>283.2948374677749</v>
@@ -24445,16 +24445,16 @@
         <v>390.1031041228389</v>
       </c>
       <c r="C26" t="n">
-        <v>378.1144210805207</v>
+        <v>11.83609160452187</v>
       </c>
       <c r="D26" t="n">
         <v>369.0957251250487</v>
       </c>
       <c r="E26" t="n">
-        <v>292.4715312272994</v>
+        <v>285.2804607225112</v>
       </c>
       <c r="F26" t="n">
-        <v>410.0096787829314</v>
+        <v>43.73134930693254</v>
       </c>
       <c r="G26" t="n">
         <v>409.6706095139172</v>
@@ -24463,7 +24463,7 @@
         <v>306.2214886528944</v>
       </c>
       <c r="I26" t="n">
-        <v>83.48474819424257</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24496,22 +24496,22 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>212.1682008602224</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>252.154695949831</v>
       </c>
       <c r="V26" t="n">
         <v>333.6094813630181</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X26" t="n">
-        <v>378.2098390737216</v>
+        <v>11.93150959772277</v>
       </c>
       <c r="Y26" t="n">
-        <v>23.32810739392153</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="27">
@@ -24530,16 +24530,16 @@
         <v>137.45025063969</v>
       </c>
       <c r="E27" t="n">
-        <v>145.5577298436975</v>
+        <v>66.61786632364172</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>133.3468600696244</v>
       </c>
       <c r="G27" t="n">
         <v>126.2254074071893</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>87.19633734978058</v>
       </c>
       <c r="I27" t="n">
         <v>25.83842112961049</v>
@@ -24581,13 +24581,13 @@
         <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>226.1116663261494</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>111.4294858141832</v>
+        <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>195.9378182409833</v>
       </c>
       <c r="Y27" t="n">
         <v>0</v>
@@ -24600,25 +24600,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>181.719814997536</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.9198098429365</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>150.4889240962943</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>150.9558484244806</v>
       </c>
       <c r="G28" t="n">
-        <v>166.2112589209658</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.7164842601944</v>
+        <v>20.84298297474447</v>
       </c>
       <c r="I28" t="n">
         <v>112.1081168638416</v>
@@ -24654,7 +24654,7 @@
         <v>193.8091813788789</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>226.4920059644283</v>
       </c>
       <c r="U28" t="n">
         <v>284.2627393580713</v>
@@ -24663,13 +24663,13 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>216.8730631903422</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>228.939939463578</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>219.8148072196457</v>
       </c>
     </row>
     <row r="29">
@@ -24679,7 +24679,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>23.82477464684013</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C29" t="n">
         <v>378.1144210805207</v>
@@ -24688,19 +24688,19 @@
         <v>369.0957251250487</v>
       </c>
       <c r="E29" t="n">
-        <v>390.8378626949542</v>
+        <v>24.55953321895538</v>
       </c>
       <c r="F29" t="n">
-        <v>410.0096787829314</v>
+        <v>43.73134930693254</v>
       </c>
       <c r="G29" t="n">
-        <v>409.6706095139172</v>
+        <v>43.3922800379184</v>
       </c>
       <c r="H29" t="n">
         <v>306.2214886528944</v>
       </c>
       <c r="I29" t="n">
-        <v>83.48474819424257</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24736,19 +24736,19 @@
         <v>212.1682008602224</v>
       </c>
       <c r="U29" t="n">
-        <v>55.74379714812159</v>
+        <v>252.154695949831</v>
       </c>
       <c r="V29" t="n">
         <v>333.6094813630181</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X29" t="n">
-        <v>11.93150959772277</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y29" t="n">
-        <v>389.6064368699203</v>
+        <v>284.0490348974773</v>
       </c>
     </row>
     <row r="30">
@@ -24761,7 +24761,7 @@
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>160.0866360314548</v>
       </c>
       <c r="D30" t="n">
         <v>137.45025063969</v>
@@ -24770,7 +24770,7 @@
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>133.3468600696244</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
         <v>126.2254074071893</v>
@@ -24815,19 +24815,19 @@
         <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>216.2298571375572</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>226.1116663261494</v>
       </c>
       <c r="W30" t="n">
-        <v>146.8817600695642</v>
+        <v>64.33439197192754</v>
       </c>
       <c r="X30" t="n">
-        <v>195.9378182409833</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>190.5961130869169</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -24846,10 +24846,10 @@
         <v>151.5411742405149</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G31" t="n">
         <v>166.2112589209658</v>
@@ -24885,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>102.1954786247584</v>
       </c>
       <c r="S31" t="n">
-        <v>193.8091813788789</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24900,10 +24900,10 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>34.36484430251352</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>228.939939463578</v>
+        <v>53.47371399943708</v>
       </c>
       <c r="Y31" t="n">
         <v>219.8148072196457</v>
@@ -24916,7 +24916,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>390.1031041228389</v>
+        <v>86.93732042998556</v>
       </c>
       <c r="C32" t="n">
         <v>378.1144210805207</v>
@@ -24970,10 +24970,10 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>212.1682008602224</v>
       </c>
       <c r="U32" t="n">
-        <v>252.154695949831</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>333.6094813630181</v>
@@ -24982,7 +24982,7 @@
         <v>358.909580840975</v>
       </c>
       <c r="X32" t="n">
-        <v>35.05756029125973</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y32" t="n">
         <v>389.6064368699203</v>
@@ -24995,7 +24995,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>157.8252483534483</v>
+        <v>112.2735746920626</v>
       </c>
       <c r="C33" t="n">
         <v>160.0866360314548</v>
@@ -25004,19 +25004,19 @@
         <v>137.45025063969</v>
       </c>
       <c r="E33" t="n">
-        <v>128.3074696627807</v>
+        <v>145.5577298436975</v>
       </c>
       <c r="F33" t="n">
         <v>133.3468600696244</v>
       </c>
       <c r="G33" t="n">
-        <v>126.2254074071893</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
         <v>87.19633734978058</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>25.83842112961049</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -25046,7 +25046,7 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>128.6883997580476</v>
       </c>
       <c r="T33" t="n">
         <v>0</v>
@@ -25074,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>181.719814997536</v>
       </c>
       <c r="C34" t="n">
         <v>167.9198098429365</v>
@@ -25086,13 +25086,13 @@
         <v>150.4889240962943</v>
       </c>
       <c r="F34" t="n">
-        <v>150.9558484244806</v>
+        <v>124.2061072205341</v>
       </c>
       <c r="G34" t="n">
         <v>166.2112589209658</v>
       </c>
       <c r="H34" t="n">
-        <v>148.7164842601944</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>112.1081168638416</v>
@@ -25122,19 +25122,19 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>102.1954786247584</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>70.13592398063727</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>258.1279513971616</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25143,7 +25143,7 @@
         <v>228.939939463578</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>219.8148072196457</v>
       </c>
     </row>
     <row r="35">
@@ -25153,22 +25153,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>98.78869419218546</v>
+        <v>133.5133718559197</v>
       </c>
       <c r="C35" t="n">
         <v>378.1144210805207</v>
       </c>
       <c r="D35" t="n">
-        <v>369.0957251250487</v>
+        <v>77.78131519439535</v>
       </c>
       <c r="E35" t="n">
-        <v>390.8378626949542</v>
+        <v>99.52345276430088</v>
       </c>
       <c r="F35" t="n">
         <v>410.0096787829314</v>
       </c>
       <c r="G35" t="n">
-        <v>409.6706095139172</v>
+        <v>118.3561995832639</v>
       </c>
       <c r="H35" t="n">
         <v>306.2214886528944</v>
@@ -25204,10 +25204,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>133.5758024357742</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>212.1682008602224</v>
       </c>
       <c r="U35" t="n">
         <v>252.154695949831</v>
@@ -25219,10 +25219,10 @@
         <v>358.909580840975</v>
       </c>
       <c r="X35" t="n">
-        <v>176.0497001721452</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y35" t="n">
-        <v>98.29202693926686</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="36">
@@ -25244,13 +25244,13 @@
         <v>145.5577298436975</v>
       </c>
       <c r="F36" t="n">
-        <v>133.3468600696244</v>
+        <v>6.221357201647294</v>
       </c>
       <c r="G36" t="n">
-        <v>126.2254074071893</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>87.19633734978058</v>
       </c>
       <c r="I36" t="n">
         <v>25.83842112961049</v>
@@ -25283,10 +25283,10 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>128.6883997580476</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>181.8976950912513</v>
       </c>
       <c r="U36" t="n">
         <v>0</v>
@@ -25298,7 +25298,7 @@
         <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>144.4315219239125</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
         <v>190.5961130869169</v>
@@ -25314,7 +25314,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.9198098429365</v>
       </c>
       <c r="D37" t="n">
         <v>151.5411742405149</v>
@@ -25326,7 +25326,7 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G37" t="n">
-        <v>166.2112589209658</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>148.7164842601944</v>
@@ -25359,28 +25359,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>57.50201354046281</v>
+        <v>102.1954786247584</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>193.8091813788789</v>
       </c>
       <c r="T37" t="n">
-        <v>226.4920059644283</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>284.2627393580713</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>150.7728159044362</v>
       </c>
       <c r="W37" t="n">
         <v>283.2948374677749</v>
       </c>
       <c r="X37" t="n">
-        <v>228.939939463578</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>219.8148072196457</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25396,16 +25396,16 @@
         <v>378.1144210805207</v>
       </c>
       <c r="D38" t="n">
-        <v>369.0957251250487</v>
+        <v>77.78131519439535</v>
       </c>
       <c r="E38" t="n">
-        <v>99.523452764301</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F38" t="n">
-        <v>410.0096787829314</v>
+        <v>118.695268852278</v>
       </c>
       <c r="G38" t="n">
-        <v>118.356199583264</v>
+        <v>118.3561995832639</v>
       </c>
       <c r="H38" t="n">
         <v>306.2214886528944</v>
@@ -25447,16 +25447,16 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>252.154695949831</v>
       </c>
       <c r="V38" t="n">
         <v>333.6094813630181</v>
       </c>
       <c r="W38" t="n">
-        <v>275.3283354534559</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X38" t="n">
-        <v>378.2098390737216</v>
+        <v>333.7883076670248</v>
       </c>
       <c r="Y38" t="n">
         <v>389.6064368699203</v>
@@ -25469,19 +25469,19 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>157.8252483534483</v>
       </c>
       <c r="C39" t="n">
         <v>160.0866360314548</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>137.45025063969</v>
       </c>
       <c r="E39" t="n">
-        <v>99.6150721472281</v>
+        <v>145.5577298436975</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>133.3468600696244</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
@@ -25490,7 +25490,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>25.8384211296105</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -25523,22 +25523,22 @@
         <v>128.6883997580476</v>
       </c>
       <c r="T39" t="n">
-        <v>181.8976950912513</v>
+        <v>141.9685295730547</v>
       </c>
       <c r="U39" t="n">
-        <v>216.2298571375572</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>238.9027100790231</v>
+        <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>195.9378182409833</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>190.5961130869169</v>
       </c>
     </row>
     <row r="40">
@@ -25548,25 +25548,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>181.719814997536</v>
       </c>
       <c r="C40" t="n">
         <v>167.9198098429365</v>
       </c>
       <c r="D40" t="n">
-        <v>151.5411742405149</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>150.4889240962943</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>150.9558484244806</v>
       </c>
       <c r="G40" t="n">
-        <v>166.2112589209658</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>148.7164842601944</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>112.1081168638417</v>
@@ -25599,25 +25599,25 @@
         <v>102.1954786247584</v>
       </c>
       <c r="S40" t="n">
-        <v>193.8091813788789</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>135.6660062659753</v>
       </c>
       <c r="U40" t="n">
         <v>284.2627393580713</v>
       </c>
       <c r="V40" t="n">
-        <v>38.91645498766766</v>
+        <v>258.1279513971616</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>283.2948374677749</v>
       </c>
       <c r="X40" t="n">
-        <v>228.939939463578</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>219.8148072196457</v>
       </c>
     </row>
     <row r="41">
@@ -25627,10 +25627,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>133.5133718559196</v>
+        <v>98.78869419218574</v>
       </c>
       <c r="C41" t="n">
-        <v>378.1144210805207</v>
+        <v>86.80001114986749</v>
       </c>
       <c r="D41" t="n">
         <v>369.0957251250487</v>
@@ -25639,7 +25639,7 @@
         <v>390.8378626949542</v>
       </c>
       <c r="F41" t="n">
-        <v>118.6952688522782</v>
+        <v>410.0096787829314</v>
       </c>
       <c r="G41" t="n">
         <v>409.6706095139172</v>
@@ -25681,19 +25681,19 @@
         <v>133.5758024357742</v>
       </c>
       <c r="T41" t="n">
-        <v>212.1682008602225</v>
+        <v>207.7331645431342</v>
       </c>
       <c r="U41" t="n">
-        <v>252.154695949831</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>333.6094813630181</v>
+        <v>42.29507143236486</v>
       </c>
       <c r="W41" t="n">
-        <v>67.59517091032177</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X41" t="n">
-        <v>86.89542914306838</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y41" t="n">
         <v>389.6064368699203</v>
@@ -25763,19 +25763,19 @@
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>216.2298571375572</v>
       </c>
       <c r="V42" t="n">
-        <v>223.3145211224173</v>
+        <v>226.1116663261494</v>
       </c>
       <c r="W42" t="n">
         <v>238.9027100790231</v>
       </c>
       <c r="X42" t="n">
-        <v>195.9378182409833</v>
+        <v>167.506928986611</v>
       </c>
       <c r="Y42" t="n">
-        <v>190.5961130869169</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -25788,13 +25788,13 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.9198098429365</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>151.5411742405149</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F43" t="n">
         <v>150.9558484244806</v>
@@ -25803,7 +25803,7 @@
         <v>166.2112589209658</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.7164842601944</v>
       </c>
       <c r="I43" t="n">
         <v>112.1081168638417</v>
@@ -25836,19 +25836,19 @@
         <v>102.1954786247584</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>193.8091813788789</v>
       </c>
       <c r="T43" t="n">
-        <v>226.4920059644283</v>
+        <v>103.3643871260933</v>
       </c>
       <c r="U43" t="n">
-        <v>284.2627393580713</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>121.7903781546378</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>283.2948374677749</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>228.939939463578</v>
@@ -25864,13 +25864,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>133.5133718559197</v>
+        <v>345.6815727161421</v>
       </c>
       <c r="C44" t="n">
-        <v>378.1144210805207</v>
+        <v>86.80001114986749</v>
       </c>
       <c r="D44" t="n">
-        <v>369.0957251250487</v>
+        <v>77.78131519439546</v>
       </c>
       <c r="E44" t="n">
         <v>390.8378626949542</v>
@@ -25879,7 +25879,7 @@
         <v>118.6952688522782</v>
       </c>
       <c r="G44" t="n">
-        <v>118.356199583264</v>
+        <v>409.6706095139172</v>
       </c>
       <c r="H44" t="n">
         <v>306.2214886528944</v>
@@ -25918,7 +25918,7 @@
         <v>133.5758024357742</v>
       </c>
       <c r="T44" t="n">
-        <v>212.1682008602225</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>252.154695949831</v>
@@ -25927,7 +25927,7 @@
         <v>333.6094813630181</v>
       </c>
       <c r="W44" t="n">
-        <v>67.59517091032177</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X44" t="n">
         <v>378.2098390737216</v>
@@ -25952,16 +25952,16 @@
         <v>137.45025063969</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>145.5577298436975</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>133.3468600696244</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>126.2254074071893</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>87.19633734978059</v>
       </c>
       <c r="I45" t="n">
         <v>25.8384211296105</v>
@@ -25994,13 +25994,13 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>128.6883997580476</v>
       </c>
       <c r="T45" t="n">
-        <v>181.8976950912513</v>
+        <v>40.32682385543421</v>
       </c>
       <c r="U45" t="n">
-        <v>216.2298571375572</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -26009,10 +26009,10 @@
         <v>238.9027100790231</v>
       </c>
       <c r="X45" t="n">
-        <v>195.9378182409833</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>67.27618781398174</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -26073,22 +26073,22 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>48.91044502741104</v>
+        <v>45.49460963796488</v>
       </c>
       <c r="T46" t="n">
-        <v>226.4920059644283</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>284.2627393580713</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>283.2948374677749</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>228.939939463578</v>
       </c>
       <c r="Y46" t="n">
         <v>219.8148072196457</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>395953.10823273</v>
+        <v>395953.1082327301</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>395953.10823273</v>
+        <v>395953.1082327301</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>395953.1082327301</v>
+        <v>395953.10823273</v>
       </c>
     </row>
     <row r="9">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>459012.3660274704</v>
+        <v>459012.3660274706</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>395953.1082327302</v>
+        <v>395953.10823273</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>395953.10823273</v>
+        <v>395953.1082327301</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>395953.1082327298</v>
+        <v>395953.10823273</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>395953.10823273</v>
+        <v>395953.1082327301</v>
       </c>
     </row>
   </sheetData>
@@ -26313,40 +26313,40 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>574407.4736304781</v>
+      </c>
+      <c r="C2" t="n">
         <v>574407.473630478</v>
       </c>
-      <c r="C2" t="n">
-        <v>574407.4736304783</v>
-      </c>
       <c r="D2" t="n">
-        <v>574407.4736304784</v>
+        <v>574407.473630478</v>
       </c>
       <c r="E2" t="n">
-        <v>283934.9263924113</v>
+        <v>283934.9263924115</v>
       </c>
       <c r="F2" t="n">
         <v>283934.9263924115</v>
       </c>
       <c r="G2" t="n">
+        <v>283934.9263924113</v>
+      </c>
+      <c r="H2" t="n">
         <v>283934.9263924115</v>
-      </c>
-      <c r="H2" t="n">
-        <v>283934.9263924114</v>
       </c>
       <c r="I2" t="n">
         <v>315790.6640897992</v>
       </c>
       <c r="J2" t="n">
-        <v>315790.664089799</v>
+        <v>315790.6640897991</v>
       </c>
       <c r="K2" t="n">
-        <v>315790.6640897991</v>
+        <v>315790.6640897992</v>
       </c>
       <c r="L2" t="n">
-        <v>315790.6640897991</v>
+        <v>315790.6640897992</v>
       </c>
       <c r="M2" t="n">
-        <v>283934.9263924116</v>
+        <v>283934.9263924113</v>
       </c>
       <c r="N2" t="n">
         <v>283934.9263924113</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>53915.40760598033</v>
+        <v>53915.4076059802</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26426,19 +26426,19 @@
         <v>419756.4024566745</v>
       </c>
       <c r="E4" t="n">
-        <v>17625.8201081383</v>
+        <v>17625.82010813831</v>
       </c>
       <c r="F4" t="n">
         <v>17625.82010813831</v>
       </c>
       <c r="G4" t="n">
-        <v>17625.82010813831</v>
+        <v>17625.8201081383</v>
       </c>
       <c r="H4" t="n">
-        <v>17625.82010813831</v>
+        <v>17625.8201081383</v>
       </c>
       <c r="I4" t="n">
-        <v>38275.76604944392</v>
+        <v>38275.7660494439</v>
       </c>
       <c r="J4" t="n">
         <v>38275.7660494439</v>
@@ -26450,10 +26450,10 @@
         <v>38275.7660494439</v>
       </c>
       <c r="M4" t="n">
-        <v>17625.82010813833</v>
+        <v>17625.82010813831</v>
       </c>
       <c r="N4" t="n">
-        <v>17625.8201081383</v>
+        <v>17625.82010813832</v>
       </c>
       <c r="O4" t="n">
         <v>17625.8201081383</v>
@@ -26502,10 +26502,10 @@
         <v>34592.03880143513</v>
       </c>
       <c r="M5" t="n">
-        <v>30034.23249307813</v>
+        <v>30034.23249307812</v>
       </c>
       <c r="N5" t="n">
-        <v>30034.23249307811</v>
+        <v>30034.23249307812</v>
       </c>
       <c r="O5" t="n">
         <v>30034.23249307811</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>121023.4711738036</v>
+        <v>120979.7854491317</v>
       </c>
       <c r="C6" t="n">
-        <v>121023.4711738038</v>
+        <v>120979.7854491316</v>
       </c>
       <c r="D6" t="n">
-        <v>121023.4711738039</v>
+        <v>120979.7854491316</v>
       </c>
       <c r="E6" t="n">
-        <v>-304823.8211080993</v>
+        <v>-314549.9250740401</v>
       </c>
       <c r="F6" t="n">
-        <v>236274.8737911951</v>
+        <v>226548.7698252542</v>
       </c>
       <c r="G6" t="n">
-        <v>236274.8737911951</v>
+        <v>226548.7698252541</v>
       </c>
       <c r="H6" t="n">
-        <v>236274.873791195</v>
+        <v>226548.7698252542</v>
       </c>
       <c r="I6" t="n">
-        <v>222988.3787895023</v>
+        <v>214324.1327468077</v>
       </c>
       <c r="J6" t="n">
-        <v>242922.85923892</v>
+        <v>234258.6131962255</v>
       </c>
       <c r="K6" t="n">
-        <v>242922.8592389201</v>
+        <v>234258.6131962255</v>
       </c>
       <c r="L6" t="n">
-        <v>242922.8592389201</v>
+        <v>234258.6131962256</v>
       </c>
       <c r="M6" t="n">
-        <v>182359.4661852148</v>
+        <v>172633.3622192739</v>
       </c>
       <c r="N6" t="n">
-        <v>236274.8737911949</v>
+        <v>226548.7698252541</v>
       </c>
       <c r="O6" t="n">
-        <v>236274.8737911949</v>
+        <v>226548.7698252541</v>
       </c>
       <c r="P6" t="n">
-        <v>236274.873791195</v>
+        <v>226548.7698252542</v>
       </c>
     </row>
   </sheetData>
@@ -26749,13 +26749,13 @@
         <v>565.2438701511193</v>
       </c>
       <c r="F3" t="n">
-        <v>565.2438701511192</v>
+        <v>565.2438701511193</v>
       </c>
       <c r="G3" t="n">
         <v>565.2438701511193</v>
       </c>
       <c r="H3" t="n">
-        <v>565.2438701511192</v>
+        <v>565.2438701511193</v>
       </c>
       <c r="I3" t="n">
         <v>565.2438701511193</v>
@@ -26822,10 +26822,10 @@
         <v>366.2783294759988</v>
       </c>
       <c r="M4" t="n">
-        <v>291.3144099306535</v>
+        <v>291.3144099306533</v>
       </c>
       <c r="N4" t="n">
-        <v>291.3144099306532</v>
+        <v>291.3144099306533</v>
       </c>
       <c r="O4" t="n">
         <v>291.3144099306532</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>216.3504903853081</v>
+        <v>216.3504903853076</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31989,13 +31989,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>2.272337166436658</v>
+        <v>2.272337166436659</v>
       </c>
       <c r="H14" t="n">
-        <v>23.27157300576943</v>
+        <v>23.27157300576944</v>
       </c>
       <c r="I14" t="n">
-        <v>87.60427860904935</v>
+        <v>87.60427860904937</v>
       </c>
       <c r="J14" t="n">
         <v>192.8617765798535</v>
@@ -32004,16 +32004,16 @@
         <v>289.0498088351173</v>
       </c>
       <c r="L14" t="n">
-        <v>358.5918473924532</v>
+        <v>358.5918473924533</v>
       </c>
       <c r="M14" t="n">
-        <v>399.0025234760711</v>
+        <v>399.0025234760712</v>
       </c>
       <c r="N14" t="n">
         <v>405.4588014502094</v>
       </c>
       <c r="O14" t="n">
-        <v>382.8632487514548</v>
+        <v>382.8632487514549</v>
       </c>
       <c r="P14" t="n">
         <v>326.7649249550498</v>
@@ -32025,13 +32025,13 @@
         <v>142.7396995311769</v>
       </c>
       <c r="S14" t="n">
-        <v>51.7808831801754</v>
+        <v>51.78088318017541</v>
       </c>
       <c r="T14" t="n">
-        <v>9.947155946076476</v>
+        <v>9.947155946076478</v>
       </c>
       <c r="U14" t="n">
-        <v>0.1817869733149326</v>
+        <v>0.1817869733149327</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32071,10 +32071,10 @@
         <v>1.215807569759011</v>
       </c>
       <c r="H15" t="n">
-        <v>11.74214152898834</v>
+        <v>11.74214152898835</v>
       </c>
       <c r="I15" t="n">
-        <v>41.86004132722911</v>
+        <v>41.86004132722912</v>
       </c>
       <c r="J15" t="n">
         <v>114.8671528955213</v>
@@ -32083,34 +32083,34 @@
         <v>196.3262600693751</v>
       </c>
       <c r="L15" t="n">
-        <v>263.9848848285958</v>
+        <v>263.9848848285959</v>
       </c>
       <c r="M15" t="n">
-        <v>308.0579092323599</v>
+        <v>308.05790923236</v>
       </c>
       <c r="N15" t="n">
-        <v>316.2112854348228</v>
+        <v>316.2112854348229</v>
       </c>
       <c r="O15" t="n">
-        <v>289.2715492838468</v>
+        <v>289.2715492838469</v>
       </c>
       <c r="P15" t="n">
-        <v>232.1659209305606</v>
+        <v>232.1659209305607</v>
       </c>
       <c r="Q15" t="n">
         <v>155.1967697818696</v>
       </c>
       <c r="R15" t="n">
-        <v>75.48671911187968</v>
+        <v>75.48671911187969</v>
       </c>
       <c r="S15" t="n">
         <v>22.58309235933951</v>
       </c>
       <c r="T15" t="n">
-        <v>4.90055770442338</v>
+        <v>4.900557704423381</v>
       </c>
       <c r="U15" t="n">
-        <v>0.07998734011572445</v>
+        <v>0.07998734011572446</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,13 +32150,13 @@
         <v>1.019292224862674</v>
       </c>
       <c r="H16" t="n">
-        <v>9.062434508324506</v>
+        <v>9.062434508324507</v>
       </c>
       <c r="I16" t="n">
-        <v>30.6528970895066</v>
+        <v>30.65289708950661</v>
       </c>
       <c r="J16" t="n">
-        <v>72.06396029779103</v>
+        <v>72.06396029779104</v>
       </c>
       <c r="K16" t="n">
         <v>118.4232239431361</v>
@@ -32165,31 +32165,31 @@
         <v>151.5409549582197</v>
       </c>
       <c r="M16" t="n">
-        <v>159.7786893937007</v>
+        <v>159.7786893937008</v>
       </c>
       <c r="N16" t="n">
         <v>155.9795092828491</v>
       </c>
       <c r="O16" t="n">
-        <v>144.0723228378623</v>
+        <v>144.0723228378624</v>
       </c>
       <c r="P16" t="n">
         <v>123.2787614506637</v>
       </c>
       <c r="Q16" t="n">
-        <v>85.35182439281898</v>
+        <v>85.35182439281901</v>
       </c>
       <c r="R16" t="n">
-        <v>45.83108494700712</v>
+        <v>45.83108494700713</v>
       </c>
       <c r="S16" t="n">
         <v>17.76348359147041</v>
       </c>
       <c r="T16" t="n">
-        <v>4.355157688049605</v>
+        <v>4.355157688049606</v>
       </c>
       <c r="U16" t="n">
-        <v>0.05559775771978227</v>
+        <v>0.05559775771978228</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32463,13 +32463,13 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>2.272337166436658</v>
+        <v>2.272337166436659</v>
       </c>
       <c r="H20" t="n">
-        <v>23.27157300576943</v>
+        <v>23.27157300576944</v>
       </c>
       <c r="I20" t="n">
-        <v>87.60427860904935</v>
+        <v>87.60427860904937</v>
       </c>
       <c r="J20" t="n">
         <v>192.8617765798535</v>
@@ -32478,16 +32478,16 @@
         <v>289.0498088351173</v>
       </c>
       <c r="L20" t="n">
-        <v>358.5918473924532</v>
+        <v>358.5918473924533</v>
       </c>
       <c r="M20" t="n">
-        <v>399.0025234760711</v>
+        <v>399.0025234760712</v>
       </c>
       <c r="N20" t="n">
         <v>405.4588014502094</v>
       </c>
       <c r="O20" t="n">
-        <v>382.8632487514548</v>
+        <v>382.8632487514549</v>
       </c>
       <c r="P20" t="n">
         <v>326.7649249550498</v>
@@ -32499,13 +32499,13 @@
         <v>142.7396995311769</v>
       </c>
       <c r="S20" t="n">
-        <v>51.7808831801754</v>
+        <v>51.78088318017541</v>
       </c>
       <c r="T20" t="n">
-        <v>9.947155946076476</v>
+        <v>9.947155946076478</v>
       </c>
       <c r="U20" t="n">
-        <v>0.1817869733149326</v>
+        <v>0.1817869733149327</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32545,10 +32545,10 @@
         <v>1.215807569759011</v>
       </c>
       <c r="H21" t="n">
-        <v>11.74214152898834</v>
+        <v>11.74214152898835</v>
       </c>
       <c r="I21" t="n">
-        <v>41.86004132722911</v>
+        <v>41.86004132722912</v>
       </c>
       <c r="J21" t="n">
         <v>114.8671528955213</v>
@@ -32557,34 +32557,34 @@
         <v>196.3262600693751</v>
       </c>
       <c r="L21" t="n">
-        <v>263.9848848285958</v>
+        <v>263.9848848285959</v>
       </c>
       <c r="M21" t="n">
-        <v>308.0579092323599</v>
+        <v>308.05790923236</v>
       </c>
       <c r="N21" t="n">
-        <v>316.2112854348228</v>
+        <v>316.2112854348229</v>
       </c>
       <c r="O21" t="n">
-        <v>289.2715492838468</v>
+        <v>289.2715492838469</v>
       </c>
       <c r="P21" t="n">
-        <v>232.1659209305606</v>
+        <v>232.1659209305607</v>
       </c>
       <c r="Q21" t="n">
         <v>155.1967697818696</v>
       </c>
       <c r="R21" t="n">
-        <v>75.48671911187968</v>
+        <v>75.48671911187969</v>
       </c>
       <c r="S21" t="n">
         <v>22.58309235933951</v>
       </c>
       <c r="T21" t="n">
-        <v>4.90055770442338</v>
+        <v>4.900557704423381</v>
       </c>
       <c r="U21" t="n">
-        <v>0.07998734011572445</v>
+        <v>0.07998734011572446</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,13 +32624,13 @@
         <v>1.019292224862674</v>
       </c>
       <c r="H22" t="n">
-        <v>9.062434508324506</v>
+        <v>9.062434508324507</v>
       </c>
       <c r="I22" t="n">
-        <v>30.6528970895066</v>
+        <v>30.65289708950661</v>
       </c>
       <c r="J22" t="n">
-        <v>72.06396029779103</v>
+        <v>72.06396029779104</v>
       </c>
       <c r="K22" t="n">
         <v>118.4232239431361</v>
@@ -32639,31 +32639,31 @@
         <v>151.5409549582197</v>
       </c>
       <c r="M22" t="n">
-        <v>159.7786893937007</v>
+        <v>159.7786893937008</v>
       </c>
       <c r="N22" t="n">
         <v>155.9795092828491</v>
       </c>
       <c r="O22" t="n">
-        <v>144.0723228378623</v>
+        <v>144.0723228378624</v>
       </c>
       <c r="P22" t="n">
         <v>123.2787614506637</v>
       </c>
       <c r="Q22" t="n">
-        <v>85.35182439281898</v>
+        <v>85.35182439281901</v>
       </c>
       <c r="R22" t="n">
-        <v>45.83108494700712</v>
+        <v>45.83108494700713</v>
       </c>
       <c r="S22" t="n">
         <v>17.76348359147041</v>
       </c>
       <c r="T22" t="n">
-        <v>4.355157688049605</v>
+        <v>4.355157688049606</v>
       </c>
       <c r="U22" t="n">
-        <v>0.05559775771978227</v>
+        <v>0.05559775771978228</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -34140,7 +34140,7 @@
         <v>358.5918473924532</v>
       </c>
       <c r="M41" t="n">
-        <v>399.0025234760709</v>
+        <v>399.0025234760711</v>
       </c>
       <c r="N41" t="n">
         <v>405.4588014502094</v>
@@ -35503,16 +35503,16 @@
         <v>209.4961443671145</v>
       </c>
       <c r="O12" t="n">
-        <v>173.4121006727358</v>
+        <v>291.3144099306533</v>
       </c>
       <c r="P12" t="n">
         <v>123.3117149064174</v>
       </c>
       <c r="Q12" t="n">
-        <v>207.1422705274968</v>
+        <v>72.93966837370351</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>16.30029289587603</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35570,13 +35570,13 @@
         <v>12.60729409782204</v>
       </c>
       <c r="K13" t="n">
-        <v>152.3668479276244</v>
+        <v>13.59995167957611</v>
       </c>
       <c r="L13" t="n">
         <v>253.1642674837344</v>
       </c>
       <c r="M13" t="n">
-        <v>46.90148993627167</v>
+        <v>278.964049118551</v>
       </c>
       <c r="N13" t="n">
         <v>275.5980363026475</v>
@@ -35585,10 +35585,10 @@
         <v>243.5305516213873</v>
       </c>
       <c r="P13" t="n">
-        <v>122.1190167040373</v>
+        <v>76.02321022977776</v>
       </c>
       <c r="Q13" t="n">
-        <v>47.19985645997116</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,19 +35646,19 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>45.76197915192085</v>
+        <v>45.76197915192091</v>
       </c>
       <c r="K14" t="n">
         <v>110.2268048610706</v>
       </c>
       <c r="L14" t="n">
-        <v>167.0316352293386</v>
+        <v>167.0316352293387</v>
       </c>
       <c r="M14" t="n">
-        <v>211.846208978912</v>
+        <v>211.8462089789122</v>
       </c>
       <c r="N14" t="n">
-        <v>219.0606872779792</v>
+        <v>219.0606872779793</v>
       </c>
       <c r="O14" t="n">
         <v>195.9084519713344</v>
@@ -35667,7 +35667,7 @@
         <v>138.8881159038933</v>
       </c>
       <c r="Q14" t="n">
-        <v>64.76347715904663</v>
+        <v>64.76347715904666</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>11.81158122885462</v>
+        <v>11.81158122885465</v>
       </c>
       <c r="K15" t="n">
-        <v>84.33009090270838</v>
+        <v>84.33009090270841</v>
       </c>
       <c r="L15" t="n">
+        <v>151.4094512574481</v>
+      </c>
+      <c r="M15" t="n">
         <v>291.3144099306533</v>
-      </c>
-      <c r="M15" t="n">
-        <v>192.57400667072</v>
       </c>
       <c r="N15" t="n">
         <v>209.4961443671145</v>
       </c>
       <c r="O15" t="n">
-        <v>173.4121006727357</v>
+        <v>240.3523896033225</v>
       </c>
       <c r="P15" t="n">
-        <v>123.3117149064173</v>
+        <v>123.3117149064174</v>
       </c>
       <c r="Q15" t="n">
-        <v>67.23731185429183</v>
+        <v>41.4615783369771</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.60729409782203</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>13.59995167957609</v>
+        <v>13.59995167957611</v>
       </c>
       <c r="L16" t="n">
         <v>253.1642674837344</v>
       </c>
       <c r="M16" t="n">
-        <v>120.9041124193727</v>
+        <v>278.964049118551</v>
       </c>
       <c r="N16" t="n">
-        <v>275.5980363026474</v>
+        <v>275.5980363026475</v>
       </c>
       <c r="O16" t="n">
         <v>243.5305516213873</v>
       </c>
       <c r="P16" t="n">
-        <v>186.8832904689847</v>
+        <v>88.63050432759971</v>
       </c>
       <c r="Q16" t="n">
-        <v>47.19985645997113</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35965,7 +35965,7 @@
         <v>11.81158122885465</v>
       </c>
       <c r="K18" t="n">
-        <v>84.33009090270841</v>
+        <v>250.0107830932283</v>
       </c>
       <c r="L18" t="n">
         <v>151.4094512574481</v>
@@ -35980,7 +35980,7 @@
         <v>173.4121006727358</v>
       </c>
       <c r="P18" t="n">
-        <v>288.9924070969374</v>
+        <v>123.3117149064174</v>
       </c>
       <c r="Q18" t="n">
         <v>41.4615783369771</v>
@@ -36041,10 +36041,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>12.60729409782204</v>
       </c>
       <c r="K19" t="n">
-        <v>13.59995167957611</v>
+        <v>152.3668479276244</v>
       </c>
       <c r="L19" t="n">
         <v>253.1642674837344</v>
@@ -36053,10 +36053,10 @@
         <v>278.964049118551</v>
       </c>
       <c r="N19" t="n">
-        <v>130.1453937012914</v>
+        <v>190.7253696310682</v>
       </c>
       <c r="O19" t="n">
-        <v>243.5305516213873</v>
+        <v>31.57638534574011</v>
       </c>
       <c r="P19" t="n">
         <v>186.8832904689847</v>
@@ -36120,19 +36120,19 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>45.76197915192085</v>
+        <v>45.76197915192091</v>
       </c>
       <c r="K20" t="n">
         <v>110.2268048610706</v>
       </c>
       <c r="L20" t="n">
-        <v>167.0316352293386</v>
+        <v>167.0316352293387</v>
       </c>
       <c r="M20" t="n">
-        <v>211.846208978912</v>
+        <v>211.8462089789122</v>
       </c>
       <c r="N20" t="n">
-        <v>219.0606872779792</v>
+        <v>219.0606872779793</v>
       </c>
       <c r="O20" t="n">
         <v>195.9084519713344</v>
@@ -36141,7 +36141,7 @@
         <v>138.8881159038933</v>
       </c>
       <c r="Q20" t="n">
-        <v>64.76347715904663</v>
+        <v>64.76347715904666</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>11.81158122885462</v>
+        <v>175.7299271713861</v>
       </c>
       <c r="K21" t="n">
-        <v>84.33009090270838</v>
+        <v>84.33009090270841</v>
       </c>
       <c r="L21" t="n">
-        <v>151.409451257448</v>
+        <v>151.4094512574481</v>
       </c>
       <c r="M21" t="n">
-        <v>192.57400667072</v>
+        <v>192.5740066707201</v>
       </c>
       <c r="N21" t="n">
         <v>209.4961443671145</v>
       </c>
       <c r="O21" t="n">
-        <v>173.4121006727357</v>
+        <v>173.4121006727358</v>
       </c>
       <c r="P21" t="n">
-        <v>288.9924070969374</v>
+        <v>123.3117149064174</v>
       </c>
       <c r="Q21" t="n">
-        <v>41.46157833697707</v>
+        <v>43.22392458496513</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36281,25 +36281,25 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>152.3668479276244</v>
+        <v>127.3013318138382</v>
       </c>
       <c r="L22" t="n">
         <v>253.1642674837344</v>
       </c>
       <c r="M22" t="n">
-        <v>218.1075421669467</v>
+        <v>278.964049118551</v>
       </c>
       <c r="N22" t="n">
-        <v>52.23500440484712</v>
+        <v>275.5980363026475</v>
       </c>
       <c r="O22" t="n">
-        <v>243.5305516213873</v>
+        <v>31.57638534574011</v>
       </c>
       <c r="P22" t="n">
         <v>186.8832904689847</v>
       </c>
       <c r="Q22" t="n">
-        <v>47.19985645997113</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36357,7 +36357,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>45.76197915192091</v>
+        <v>66.57932424127124</v>
       </c>
       <c r="K23" t="n">
         <v>110.2268048610706</v>
@@ -36372,13 +36372,13 @@
         <v>219.0606872779793</v>
       </c>
       <c r="O23" t="n">
-        <v>366.2783294759988</v>
+        <v>195.9084519713344</v>
       </c>
       <c r="P23" t="n">
         <v>138.8881159038933</v>
       </c>
       <c r="Q23" t="n">
-        <v>191.2204326016088</v>
+        <v>340.7729650169227</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36436,10 +36436,10 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>11.81158122885465</v>
+        <v>175.7299271713861</v>
       </c>
       <c r="K24" t="n">
-        <v>84.33009090270841</v>
+        <v>366.2783294759988</v>
       </c>
       <c r="L24" t="n">
         <v>151.4094512574481</v>
@@ -36448,19 +36448,19 @@
         <v>192.5740066707201</v>
       </c>
       <c r="N24" t="n">
-        <v>366.2783294759988</v>
+        <v>209.4961443671145</v>
       </c>
       <c r="O24" t="n">
-        <v>366.2783294759988</v>
+        <v>173.4121006727358</v>
       </c>
       <c r="P24" t="n">
-        <v>219.8705332361407</v>
+        <v>123.3117149064174</v>
       </c>
       <c r="Q24" t="n">
-        <v>41.4615783369771</v>
+        <v>58.10251895890168</v>
       </c>
       <c r="R24" t="n">
-        <v>16.30029289587603</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36594,10 +36594,10 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>45.76197915192091</v>
+        <v>265.5875788756168</v>
       </c>
       <c r="K26" t="n">
-        <v>131.0441499504209</v>
+        <v>110.2268048610706</v>
       </c>
       <c r="L26" t="n">
         <v>167.0316352293387</v>
@@ -36615,7 +36615,7 @@
         <v>138.8881159038933</v>
       </c>
       <c r="Q26" t="n">
-        <v>340.7729650169227</v>
+        <v>141.7647103825772</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -36673,10 +36673,10 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>11.81158122885465</v>
+        <v>175.7299271713861</v>
       </c>
       <c r="K27" t="n">
-        <v>84.33009090270841</v>
+        <v>366.2783294759988</v>
       </c>
       <c r="L27" t="n">
         <v>151.4094512574481</v>
@@ -36685,19 +36685,19 @@
         <v>192.5740066707201</v>
       </c>
       <c r="N27" t="n">
-        <v>366.2783294759988</v>
+        <v>209.4961443671145</v>
       </c>
       <c r="O27" t="n">
-        <v>236.1708261320167</v>
+        <v>173.4121006727358</v>
       </c>
       <c r="P27" t="n">
-        <v>366.2783294759988</v>
+        <v>123.3117149064174</v>
       </c>
       <c r="Q27" t="n">
-        <v>41.4615783369771</v>
+        <v>41.80222606302566</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>16.30029289587603</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36831,10 +36831,10 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>45.76197915192091</v>
+        <v>265.5875788756168</v>
       </c>
       <c r="K29" t="n">
-        <v>366.2783294759988</v>
+        <v>110.2268048610706</v>
       </c>
       <c r="L29" t="n">
         <v>167.0316352293387</v>
@@ -36849,10 +36849,10 @@
         <v>195.9084519713344</v>
       </c>
       <c r="P29" t="n">
-        <v>179.6634242361915</v>
+        <v>138.8881159038933</v>
       </c>
       <c r="Q29" t="n">
-        <v>64.76347715904666</v>
+        <v>141.7647103825772</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -36910,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>11.81158122885465</v>
+        <v>175.7299271713861</v>
       </c>
       <c r="K30" t="n">
         <v>84.33009090270841</v>
       </c>
       <c r="L30" t="n">
-        <v>151.4094512574481</v>
+        <v>160.5978635001833</v>
       </c>
       <c r="M30" t="n">
         <v>192.5740066707201</v>
       </c>
       <c r="N30" t="n">
-        <v>366.2783294759988</v>
+        <v>209.4961443671145</v>
       </c>
       <c r="O30" t="n">
-        <v>219.8705332361407</v>
+        <v>173.4121006727358</v>
       </c>
       <c r="P30" t="n">
-        <v>366.2783294759988</v>
+        <v>123.3117149064174</v>
       </c>
       <c r="Q30" t="n">
-        <v>41.4615783369771</v>
+        <v>314.5620523935809</v>
       </c>
       <c r="R30" t="n">
         <v>16.30029289587603</v>
@@ -37068,7 +37068,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>45.76197915192091</v>
+        <v>265.5875788756168</v>
       </c>
       <c r="K32" t="n">
         <v>110.2268048610706</v>
@@ -37080,16 +37080,16 @@
         <v>211.8462089789122</v>
       </c>
       <c r="N32" t="n">
-        <v>288.4973066531001</v>
+        <v>219.0606872779793</v>
       </c>
       <c r="O32" t="n">
         <v>195.9084519713344</v>
       </c>
       <c r="P32" t="n">
-        <v>366.2783294759988</v>
+        <v>138.8881159038933</v>
       </c>
       <c r="Q32" t="n">
-        <v>64.76347715904666</v>
+        <v>141.7647103825772</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -37147,13 +37147,13 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>11.81158122885465</v>
+        <v>175.7299271713861</v>
       </c>
       <c r="K33" t="n">
-        <v>84.33009090270841</v>
+        <v>366.2783294759988</v>
       </c>
       <c r="L33" t="n">
-        <v>151.4094512574481</v>
+        <v>151.7500989834967</v>
       </c>
       <c r="M33" t="n">
         <v>192.5740066707201</v>
@@ -37162,13 +37162,13 @@
         <v>209.4961443671145</v>
       </c>
       <c r="O33" t="n">
-        <v>346.5188588580026</v>
+        <v>173.4121006727358</v>
       </c>
       <c r="P33" t="n">
         <v>123.3117149064174</v>
       </c>
       <c r="Q33" t="n">
-        <v>314.5620523935809</v>
+        <v>41.4615783369771</v>
       </c>
       <c r="R33" t="n">
         <v>16.30029289587603</v>
@@ -37384,7 +37384,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>11.81158122885465</v>
+        <v>161.1919805234985</v>
       </c>
       <c r="K36" t="n">
         <v>84.33009090270841</v>
@@ -37402,7 +37402,7 @@
         <v>173.4121006727358</v>
       </c>
       <c r="P36" t="n">
-        <v>272.6921142010621</v>
+        <v>123.3117149064174</v>
       </c>
       <c r="Q36" t="n">
         <v>41.4615783369771</v>
@@ -37463,19 +37463,19 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.60729409782204</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>13.59995167957611</v>
+        <v>79.36442108224075</v>
       </c>
       <c r="L37" t="n">
-        <v>253.1642674837344</v>
+        <v>41.94715547971364</v>
       </c>
       <c r="M37" t="n">
         <v>278.964049118551</v>
       </c>
       <c r="N37" t="n">
-        <v>117.53809960347</v>
+        <v>275.5980363026475</v>
       </c>
       <c r="O37" t="n">
         <v>243.5305516213873</v>
@@ -37621,10 +37621,10 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>175.7299271713861</v>
+        <v>11.81158122885462</v>
       </c>
       <c r="K39" t="n">
-        <v>86.09243715069675</v>
+        <v>84.33009090270838</v>
       </c>
       <c r="L39" t="n">
         <v>151.409451257448</v>
@@ -37639,7 +37639,7 @@
         <v>173.4121006727357</v>
       </c>
       <c r="P39" t="n">
-        <v>123.3117149064173</v>
+        <v>288.9924070969376</v>
       </c>
       <c r="Q39" t="n">
         <v>41.46157833697707</v>
@@ -37703,7 +37703,7 @@
         <v>12.60729409782203</v>
       </c>
       <c r="K40" t="n">
-        <v>67.49418125604474</v>
+        <v>13.59995167957609</v>
       </c>
       <c r="L40" t="n">
         <v>253.1642674837344</v>
@@ -37715,13 +37715,13 @@
         <v>275.5980363026474</v>
       </c>
       <c r="O40" t="n">
-        <v>31.57638534574008</v>
+        <v>243.5305516213873</v>
       </c>
       <c r="P40" t="n">
-        <v>186.8832904689847</v>
+        <v>76.02321022977799</v>
       </c>
       <c r="Q40" t="n">
-        <v>47.19985645997113</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37788,7 +37788,7 @@
         <v>167.0316352293386</v>
       </c>
       <c r="M41" t="n">
-        <v>211.8462089789118</v>
+        <v>211.846208978912</v>
       </c>
       <c r="N41" t="n">
         <v>219.0606872779792</v>
@@ -37858,13 +37858,13 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>11.81158122885462</v>
+        <v>161.1919805234985</v>
       </c>
       <c r="K42" t="n">
         <v>84.33009090270838</v>
       </c>
       <c r="L42" t="n">
-        <v>199.1878341900504</v>
+        <v>151.409451257448</v>
       </c>
       <c r="M42" t="n">
         <v>192.57400667072</v>
@@ -37873,7 +37873,7 @@
         <v>209.4961443671145</v>
       </c>
       <c r="O42" t="n">
-        <v>291.3144099306532</v>
+        <v>173.4121006727357</v>
       </c>
       <c r="P42" t="n">
         <v>123.3117149064173</v>
@@ -37882,7 +37882,7 @@
         <v>41.46157833697707</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>16.30029289587601</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.60729409782203</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>87.60257416267696</v>
+        <v>13.59995167957609</v>
       </c>
       <c r="L43" t="n">
         <v>253.1642674837344</v>
       </c>
       <c r="M43" t="n">
-        <v>46.90148993627164</v>
+        <v>278.964049118551</v>
       </c>
       <c r="N43" t="n">
         <v>275.5980363026474</v>
       </c>
       <c r="O43" t="n">
-        <v>243.5305516213873</v>
+        <v>98.07790902003086</v>
       </c>
       <c r="P43" t="n">
         <v>186.8832904689847</v>
@@ -38101,7 +38101,7 @@
         <v>84.33009090270838</v>
       </c>
       <c r="L45" t="n">
-        <v>291.3144099306532</v>
+        <v>151.409451257448</v>
       </c>
       <c r="M45" t="n">
         <v>192.57400667072</v>
@@ -38110,16 +38110,16 @@
         <v>209.4961443671145</v>
       </c>
       <c r="O45" t="n">
-        <v>182.8875412941744</v>
+        <v>173.4121006727357</v>
       </c>
       <c r="P45" t="n">
         <v>123.3117149064173</v>
       </c>
       <c r="Q45" t="n">
-        <v>41.46157833697707</v>
+        <v>207.1422705274969</v>
       </c>
       <c r="R45" t="n">
-        <v>16.30029289587601</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38177,7 +38177,7 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>13.59995167957609</v>
+        <v>90.8556978464444</v>
       </c>
       <c r="L46" t="n">
         <v>253.1642674837344</v>
@@ -38186,16 +38186,16 @@
         <v>278.964049118551</v>
       </c>
       <c r="N46" t="n">
-        <v>130.145393701291</v>
+        <v>275.5980363026474</v>
       </c>
       <c r="O46" t="n">
         <v>243.5305516213873</v>
       </c>
       <c r="P46" t="n">
-        <v>186.8832904689847</v>
+        <v>11.37475816073128</v>
       </c>
       <c r="Q46" t="n">
-        <v>47.19985645997113</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
